--- a/database/industries/dode/shekarbon/product/monthly.xlsx
+++ b/database/industries/dode/shekarbon/product/monthly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\dode\shekarbon\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\dode\shekarbon\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF7F922-52F1-48A7-A0C5-C2DEB6A6349E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="5550"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -243,7 +244,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -430,7 +431,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -442,7 +443,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -489,6 +490,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -524,6 +542,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -675,17 +710,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BB49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -740,7 +775,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -797,7 +832,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -854,7 +889,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -909,7 +944,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -966,7 +1001,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1023,7 +1058,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1078,7 +1113,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1235,7 +1270,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1290,7 +1325,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1347,7 +1382,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>55</v>
       </c>
@@ -1506,7 +1541,7 @@
         <v>3934</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>57</v>
       </c>
@@ -1563,7 +1598,7 @@
       <c r="BA12" s="13"/>
       <c r="BB12" s="13"/>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
         <v>58</v>
       </c>
@@ -1720,7 +1755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B14" s="16" t="s">
         <v>60</v>
       </c>
@@ -1877,7 +1912,7 @@
         <v>3934</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1932,7 +1967,7 @@
       <c r="BA15" s="1"/>
       <c r="BB15" s="1"/>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -1987,7 +2022,7 @@
       <c r="BA16" s="1"/>
       <c r="BB16" s="1"/>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -2042,7 +2077,7 @@
       <c r="BA17" s="1"/>
       <c r="BB17" s="1"/>
     </row>
-    <row r="18" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B18" s="7" t="s">
         <v>61</v>
       </c>
@@ -2199,7 +2234,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -2254,7 +2289,7 @@
       <c r="BA19" s="1"/>
       <c r="BB19" s="1"/>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>61</v>
       </c>
@@ -2311,7 +2346,7 @@
       <c r="BA20" s="9"/>
       <c r="BB20" s="9"/>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>55</v>
       </c>
@@ -2470,7 +2505,7 @@
         <v>4110</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B22" s="12" t="s">
         <v>57</v>
       </c>
@@ -2527,7 +2562,7 @@
       <c r="BA22" s="13"/>
       <c r="BB22" s="13"/>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B23" s="14" t="s">
         <v>58</v>
       </c>
@@ -2684,7 +2719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
         <v>62</v>
       </c>
@@ -2741,7 +2776,7 @@
       <c r="BA24" s="9"/>
       <c r="BB24" s="9"/>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>55</v>
       </c>
@@ -2900,7 +2935,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
         <v>63</v>
       </c>
@@ -3057,7 +3092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B27" s="14" t="s">
         <v>60</v>
       </c>
@@ -3214,7 +3249,7 @@
         <v>4110</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -3269,7 +3304,7 @@
       <c r="BA28" s="1"/>
       <c r="BB28" s="1"/>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -3324,7 +3359,7 @@
       <c r="BA29" s="1"/>
       <c r="BB29" s="1"/>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -3379,7 +3414,7 @@
       <c r="BA30" s="1"/>
       <c r="BB30" s="1"/>
     </row>
-    <row r="31" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B31" s="7" t="s">
         <v>64</v>
       </c>
@@ -3536,7 +3571,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -3591,7 +3626,7 @@
       <c r="BA32" s="1"/>
       <c r="BB32" s="1"/>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>64</v>
       </c>
@@ -3648,7 +3683,7 @@
       <c r="BA33" s="9"/>
       <c r="BB33" s="9"/>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>55</v>
       </c>
@@ -3807,7 +3842,7 @@
         <v>1458285</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B35" s="12" t="s">
         <v>66</v>
       </c>
@@ -3864,7 +3899,7 @@
       <c r="BA35" s="13"/>
       <c r="BB35" s="13"/>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B36" s="14" t="s">
         <v>58</v>
       </c>
@@ -4023,7 +4058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>67</v>
       </c>
@@ -4080,7 +4115,7 @@
       <c r="BA37" s="9"/>
       <c r="BB37" s="9"/>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>55</v>
       </c>
@@ -4239,7 +4274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B39" s="16" t="s">
         <v>63</v>
       </c>
@@ -4398,7 +4433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>68</v>
       </c>
@@ -4455,7 +4490,7 @@
       <c r="BA40" s="9"/>
       <c r="BB40" s="9"/>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>69</v>
       </c>
@@ -4614,7 +4649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B42" s="16" t="s">
         <v>60</v>
       </c>
@@ -4771,7 +4806,7 @@
         <v>1458285</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -4826,7 +4861,7 @@
       <c r="BA43" s="1"/>
       <c r="BB43" s="1"/>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -4881,7 +4916,7 @@
       <c r="BA44" s="1"/>
       <c r="BB44" s="1"/>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -4936,7 +4971,7 @@
       <c r="BA45" s="1"/>
       <c r="BB45" s="1"/>
     </row>
-    <row r="46" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B46" s="7" t="s">
         <v>70</v>
       </c>
@@ -5093,7 +5128,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -5148,7 +5183,7 @@
       <c r="BA47" s="1"/>
       <c r="BB47" s="1"/>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>71</v>
       </c>
@@ -5205,7 +5240,7 @@
       <c r="BA48" s="9"/>
       <c r="BB48" s="9"/>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
         <v>55</v>
       </c>

--- a/database/industries/dode/shekarbon/product/monthly.xlsx
+++ b/database/industries/dode/shekarbon/product/monthly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\dode\shekarbon\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF7F922-52F1-48A7-A0C5-C2DEB6A6349E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317D4F76-58E6-4157-9CCE-443A96F1D930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="73">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>ماه 6 منتهی به 1397/06</t>
-  </si>
-  <si>
     <t>ماه 7 منتهی به 1397/07</t>
   </si>
   <si>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>ماه 7 منتهی به 1401/07</t>
+  </si>
+  <si>
+    <t>ماه 8 منتهی به 1401/08</t>
   </si>
   <si>
     <t>دوده صنعتی</t>
@@ -1391,154 +1391,154 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>3304</v>
+        <v>3230</v>
       </c>
       <c r="F11" s="11">
-        <v>3230</v>
+        <v>2950</v>
       </c>
       <c r="G11" s="11">
-        <v>2950</v>
+        <v>2680</v>
       </c>
       <c r="H11" s="11">
-        <v>2680</v>
+        <v>2550</v>
       </c>
       <c r="I11" s="11">
-        <v>2550</v>
+        <v>2725</v>
       </c>
       <c r="J11" s="11">
-        <v>2725</v>
+        <v>3337</v>
       </c>
       <c r="K11" s="11">
-        <v>3337</v>
+        <v>2715</v>
       </c>
       <c r="L11" s="11">
+        <v>2278</v>
+      </c>
+      <c r="M11" s="11">
+        <v>2855</v>
+      </c>
+      <c r="N11" s="11">
+        <v>2295</v>
+      </c>
+      <c r="O11" s="11">
+        <v>2735</v>
+      </c>
+      <c r="P11" s="11">
+        <v>2240</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>2270</v>
+      </c>
+      <c r="R11" s="11">
+        <v>1490</v>
+      </c>
+      <c r="S11" s="11">
+        <v>1950</v>
+      </c>
+      <c r="T11" s="11">
+        <v>3290</v>
+      </c>
+      <c r="U11" s="11">
+        <v>2915</v>
+      </c>
+      <c r="V11" s="11">
+        <v>3315</v>
+      </c>
+      <c r="W11" s="11">
+        <v>2540</v>
+      </c>
+      <c r="X11" s="11">
+        <v>2735</v>
+      </c>
+      <c r="Y11" s="11">
+        <v>3090</v>
+      </c>
+      <c r="Z11" s="11">
+        <v>3400</v>
+      </c>
+      <c r="AA11" s="11">
+        <v>3530</v>
+      </c>
+      <c r="AB11" s="11">
+        <v>2951</v>
+      </c>
+      <c r="AC11" s="11">
+        <v>4040</v>
+      </c>
+      <c r="AD11" s="11">
+        <v>3225</v>
+      </c>
+      <c r="AE11" s="11">
+        <v>3438</v>
+      </c>
+      <c r="AF11" s="11">
+        <v>4670</v>
+      </c>
+      <c r="AG11" s="11">
+        <v>4320</v>
+      </c>
+      <c r="AH11" s="11">
+        <v>4193</v>
+      </c>
+      <c r="AI11" s="11">
+        <v>3610</v>
+      </c>
+      <c r="AJ11" s="11">
+        <v>3760</v>
+      </c>
+      <c r="AK11" s="11">
+        <v>4125</v>
+      </c>
+      <c r="AL11" s="11">
+        <v>3924</v>
+      </c>
+      <c r="AM11" s="11">
+        <v>4015</v>
+      </c>
+      <c r="AN11" s="11">
+        <v>3683</v>
+      </c>
+      <c r="AO11" s="11">
+        <v>4100</v>
+      </c>
+      <c r="AP11" s="11">
         <v>2715</v>
       </c>
-      <c r="M11" s="11">
-        <v>2278</v>
-      </c>
-      <c r="N11" s="11">
-        <v>2855</v>
-      </c>
-      <c r="O11" s="11">
-        <v>2295</v>
-      </c>
-      <c r="P11" s="11">
-        <v>2735</v>
-      </c>
-      <c r="Q11" s="11">
-        <v>2240</v>
-      </c>
-      <c r="R11" s="11">
-        <v>2270</v>
-      </c>
-      <c r="S11" s="11">
-        <v>1490</v>
-      </c>
-      <c r="T11" s="11">
-        <v>1950</v>
-      </c>
-      <c r="U11" s="11">
-        <v>3290</v>
-      </c>
-      <c r="V11" s="11">
-        <v>2915</v>
-      </c>
-      <c r="W11" s="11">
-        <v>3315</v>
-      </c>
-      <c r="X11" s="11">
-        <v>2540</v>
-      </c>
-      <c r="Y11" s="11">
-        <v>2735</v>
-      </c>
-      <c r="Z11" s="11">
-        <v>3090</v>
-      </c>
-      <c r="AA11" s="11">
-        <v>3400</v>
-      </c>
-      <c r="AB11" s="11">
-        <v>3530</v>
-      </c>
-      <c r="AC11" s="11">
-        <v>2951</v>
-      </c>
-      <c r="AD11" s="11">
-        <v>4040</v>
-      </c>
-      <c r="AE11" s="11">
-        <v>3225</v>
-      </c>
-      <c r="AF11" s="11">
-        <v>3438</v>
-      </c>
-      <c r="AG11" s="11">
-        <v>4670</v>
-      </c>
-      <c r="AH11" s="11">
-        <v>4320</v>
-      </c>
-      <c r="AI11" s="11">
-        <v>4193</v>
-      </c>
-      <c r="AJ11" s="11">
-        <v>3610</v>
-      </c>
-      <c r="AK11" s="11">
-        <v>3760</v>
-      </c>
-      <c r="AL11" s="11">
-        <v>4125</v>
-      </c>
-      <c r="AM11" s="11">
-        <v>3924</v>
-      </c>
-      <c r="AN11" s="11">
-        <v>4015</v>
-      </c>
-      <c r="AO11" s="11">
-        <v>3683</v>
-      </c>
-      <c r="AP11" s="11">
-        <v>4100</v>
-      </c>
       <c r="AQ11" s="11">
-        <v>2715</v>
+        <v>3855</v>
       </c>
       <c r="AR11" s="11">
-        <v>3855</v>
+        <v>3827</v>
       </c>
       <c r="AS11" s="11">
-        <v>3827</v>
+        <v>2999</v>
       </c>
       <c r="AT11" s="11">
-        <v>2999</v>
+        <v>3403</v>
       </c>
       <c r="AU11" s="11">
-        <v>3403</v>
+        <v>3890</v>
       </c>
       <c r="AV11" s="11">
-        <v>3890</v>
+        <v>3877</v>
       </c>
       <c r="AW11" s="11">
-        <v>3877</v>
+        <v>3354</v>
       </c>
       <c r="AX11" s="11">
-        <v>3354</v>
+        <v>3897</v>
       </c>
       <c r="AY11" s="11">
-        <v>3897</v>
+        <v>2874</v>
       </c>
       <c r="AZ11" s="11">
-        <v>2874</v>
+        <v>4121</v>
       </c>
       <c r="BA11" s="11">
-        <v>4121</v>
+        <v>3934</v>
       </c>
       <c r="BB11" s="11">
-        <v>3934</v>
+        <v>3832</v>
       </c>
     </row>
     <row r="12" spans="2:54" x14ac:dyDescent="0.3">
@@ -1667,8 +1667,8 @@
       <c r="Y13" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="Z13" s="15" t="s">
-        <v>59</v>
+      <c r="Z13" s="15">
+        <v>0</v>
       </c>
       <c r="AA13" s="15">
         <v>0</v>
@@ -1762,154 +1762,154 @@
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
       <c r="E14" s="17">
-        <v>3304</v>
+        <v>3230</v>
       </c>
       <c r="F14" s="17">
-        <v>3230</v>
+        <v>2950</v>
       </c>
       <c r="G14" s="17">
-        <v>2950</v>
+        <v>2680</v>
       </c>
       <c r="H14" s="17">
-        <v>2680</v>
+        <v>2550</v>
       </c>
       <c r="I14" s="17">
-        <v>2550</v>
+        <v>2725</v>
       </c>
       <c r="J14" s="17">
-        <v>2725</v>
+        <v>3337</v>
       </c>
       <c r="K14" s="17">
-        <v>3337</v>
+        <v>2715</v>
       </c>
       <c r="L14" s="17">
+        <v>2278</v>
+      </c>
+      <c r="M14" s="17">
+        <v>2855</v>
+      </c>
+      <c r="N14" s="17">
+        <v>2295</v>
+      </c>
+      <c r="O14" s="17">
+        <v>2735</v>
+      </c>
+      <c r="P14" s="17">
+        <v>2240</v>
+      </c>
+      <c r="Q14" s="17">
+        <v>2270</v>
+      </c>
+      <c r="R14" s="17">
+        <v>1490</v>
+      </c>
+      <c r="S14" s="17">
+        <v>1950</v>
+      </c>
+      <c r="T14" s="17">
+        <v>3290</v>
+      </c>
+      <c r="U14" s="17">
+        <v>2915</v>
+      </c>
+      <c r="V14" s="17">
+        <v>3315</v>
+      </c>
+      <c r="W14" s="17">
+        <v>2540</v>
+      </c>
+      <c r="X14" s="17">
+        <v>2735</v>
+      </c>
+      <c r="Y14" s="17">
+        <v>3090</v>
+      </c>
+      <c r="Z14" s="17">
+        <v>3400</v>
+      </c>
+      <c r="AA14" s="17">
+        <v>3530</v>
+      </c>
+      <c r="AB14" s="17">
+        <v>2951</v>
+      </c>
+      <c r="AC14" s="17">
+        <v>4040</v>
+      </c>
+      <c r="AD14" s="17">
+        <v>3225</v>
+      </c>
+      <c r="AE14" s="17">
+        <v>3438</v>
+      </c>
+      <c r="AF14" s="17">
+        <v>4670</v>
+      </c>
+      <c r="AG14" s="17">
+        <v>4320</v>
+      </c>
+      <c r="AH14" s="17">
+        <v>4193</v>
+      </c>
+      <c r="AI14" s="17">
+        <v>3610</v>
+      </c>
+      <c r="AJ14" s="17">
+        <v>3760</v>
+      </c>
+      <c r="AK14" s="17">
+        <v>4125</v>
+      </c>
+      <c r="AL14" s="17">
+        <v>3924</v>
+      </c>
+      <c r="AM14" s="17">
+        <v>4015</v>
+      </c>
+      <c r="AN14" s="17">
+        <v>3683</v>
+      </c>
+      <c r="AO14" s="17">
+        <v>4100</v>
+      </c>
+      <c r="AP14" s="17">
         <v>2715</v>
       </c>
-      <c r="M14" s="17">
-        <v>2278</v>
-      </c>
-      <c r="N14" s="17">
-        <v>2855</v>
-      </c>
-      <c r="O14" s="17">
-        <v>2295</v>
-      </c>
-      <c r="P14" s="17">
-        <v>2735</v>
-      </c>
-      <c r="Q14" s="17">
-        <v>2240</v>
-      </c>
-      <c r="R14" s="17">
-        <v>2270</v>
-      </c>
-      <c r="S14" s="17">
-        <v>1490</v>
-      </c>
-      <c r="T14" s="17">
-        <v>1950</v>
-      </c>
-      <c r="U14" s="17">
-        <v>3290</v>
-      </c>
-      <c r="V14" s="17">
-        <v>2915</v>
-      </c>
-      <c r="W14" s="17">
-        <v>3315</v>
-      </c>
-      <c r="X14" s="17">
-        <v>2540</v>
-      </c>
-      <c r="Y14" s="17">
-        <v>2735</v>
-      </c>
-      <c r="Z14" s="17">
-        <v>3090</v>
-      </c>
-      <c r="AA14" s="17">
-        <v>3400</v>
-      </c>
-      <c r="AB14" s="17">
-        <v>3530</v>
-      </c>
-      <c r="AC14" s="17">
-        <v>2951</v>
-      </c>
-      <c r="AD14" s="17">
-        <v>4040</v>
-      </c>
-      <c r="AE14" s="17">
-        <v>3225</v>
-      </c>
-      <c r="AF14" s="17">
-        <v>3438</v>
-      </c>
-      <c r="AG14" s="17">
-        <v>4670</v>
-      </c>
-      <c r="AH14" s="17">
-        <v>4320</v>
-      </c>
-      <c r="AI14" s="17">
-        <v>4193</v>
-      </c>
-      <c r="AJ14" s="17">
-        <v>3610</v>
-      </c>
-      <c r="AK14" s="17">
-        <v>3760</v>
-      </c>
-      <c r="AL14" s="17">
-        <v>4125</v>
-      </c>
-      <c r="AM14" s="17">
-        <v>3924</v>
-      </c>
-      <c r="AN14" s="17">
-        <v>4015</v>
-      </c>
-      <c r="AO14" s="17">
-        <v>3683</v>
-      </c>
-      <c r="AP14" s="17">
-        <v>4100</v>
-      </c>
       <c r="AQ14" s="17">
-        <v>2715</v>
+        <v>3855</v>
       </c>
       <c r="AR14" s="17">
-        <v>3855</v>
+        <v>3827</v>
       </c>
       <c r="AS14" s="17">
-        <v>3827</v>
+        <v>2999</v>
       </c>
       <c r="AT14" s="17">
-        <v>2999</v>
+        <v>3403</v>
       </c>
       <c r="AU14" s="17">
-        <v>3403</v>
+        <v>3890</v>
       </c>
       <c r="AV14" s="17">
-        <v>3890</v>
+        <v>3877</v>
       </c>
       <c r="AW14" s="17">
-        <v>3877</v>
+        <v>3354</v>
       </c>
       <c r="AX14" s="17">
-        <v>3354</v>
+        <v>3897</v>
       </c>
       <c r="AY14" s="17">
-        <v>3897</v>
+        <v>2874</v>
       </c>
       <c r="AZ14" s="17">
-        <v>2874</v>
+        <v>4121</v>
       </c>
       <c r="BA14" s="17">
-        <v>4121</v>
+        <v>3934</v>
       </c>
       <c r="BB14" s="17">
-        <v>3934</v>
+        <v>3832</v>
       </c>
     </row>
     <row r="15" spans="2:54" x14ac:dyDescent="0.3">
@@ -2355,154 +2355,154 @@
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11">
-        <v>2589</v>
+        <v>3379</v>
       </c>
       <c r="F21" s="11">
-        <v>3379</v>
+        <v>3540</v>
       </c>
       <c r="G21" s="11">
-        <v>3540</v>
+        <v>2082</v>
       </c>
       <c r="H21" s="11">
-        <v>2082</v>
+        <v>1880</v>
       </c>
       <c r="I21" s="11">
-        <v>1880</v>
+        <v>2320</v>
       </c>
       <c r="J21" s="11">
-        <v>2320</v>
+        <v>4185</v>
       </c>
       <c r="K21" s="11">
-        <v>4185</v>
+        <v>1466</v>
       </c>
       <c r="L21" s="11">
-        <v>1466</v>
+        <v>2924</v>
       </c>
       <c r="M21" s="11">
-        <v>2924</v>
+        <v>2373</v>
       </c>
       <c r="N21" s="11">
-        <v>2373</v>
+        <v>2415</v>
       </c>
       <c r="O21" s="11">
-        <v>2415</v>
+        <v>2392</v>
       </c>
       <c r="P21" s="11">
-        <v>2392</v>
+        <v>1674</v>
       </c>
       <c r="Q21" s="11">
-        <v>1674</v>
+        <v>2064</v>
       </c>
       <c r="R21" s="11">
-        <v>2064</v>
+        <v>2844</v>
       </c>
       <c r="S21" s="11">
-        <v>2844</v>
+        <v>3023</v>
       </c>
       <c r="T21" s="11">
-        <v>3023</v>
+        <v>3267</v>
       </c>
       <c r="U21" s="11">
-        <v>3267</v>
+        <v>2989</v>
       </c>
       <c r="V21" s="11">
-        <v>2989</v>
+        <v>2486</v>
       </c>
       <c r="W21" s="11">
-        <v>2486</v>
+        <v>2286</v>
       </c>
       <c r="X21" s="11">
-        <v>2286</v>
+        <v>2237</v>
       </c>
       <c r="Y21" s="11">
-        <v>2237</v>
+        <v>3936</v>
       </c>
       <c r="Z21" s="11">
-        <v>3936</v>
+        <v>4061</v>
       </c>
       <c r="AA21" s="11">
-        <v>4061</v>
+        <v>3990</v>
       </c>
       <c r="AB21" s="11">
-        <v>3990</v>
+        <v>3330</v>
       </c>
       <c r="AC21" s="11">
-        <v>3330</v>
+        <v>4227</v>
       </c>
       <c r="AD21" s="11">
-        <v>4227</v>
+        <v>3678</v>
       </c>
       <c r="AE21" s="11">
-        <v>3678</v>
+        <v>3818</v>
       </c>
       <c r="AF21" s="11">
-        <v>3818</v>
+        <v>4436</v>
       </c>
       <c r="AG21" s="11">
-        <v>4436</v>
+        <v>3789</v>
       </c>
       <c r="AH21" s="11">
-        <v>3789</v>
+        <v>4845</v>
       </c>
       <c r="AI21" s="11">
-        <v>4845</v>
+        <v>2866</v>
       </c>
       <c r="AJ21" s="11">
-        <v>2866</v>
+        <v>4235</v>
       </c>
       <c r="AK21" s="11">
-        <v>4235</v>
+        <v>3790</v>
       </c>
       <c r="AL21" s="11">
-        <v>3790</v>
+        <v>3406</v>
       </c>
       <c r="AM21" s="11">
-        <v>3406</v>
+        <v>2735</v>
       </c>
       <c r="AN21" s="11">
-        <v>2735</v>
+        <v>3374</v>
       </c>
       <c r="AO21" s="11">
-        <v>3374</v>
+        <v>3102</v>
       </c>
       <c r="AP21" s="11">
-        <v>3102</v>
+        <v>3380</v>
       </c>
       <c r="AQ21" s="11">
-        <v>3380</v>
+        <v>3129</v>
       </c>
       <c r="AR21" s="11">
-        <v>3129</v>
+        <v>3275</v>
       </c>
       <c r="AS21" s="11">
-        <v>3275</v>
+        <v>3355</v>
       </c>
       <c r="AT21" s="11">
-        <v>3355</v>
+        <v>4512</v>
       </c>
       <c r="AU21" s="11">
-        <v>4512</v>
+        <v>3439</v>
       </c>
       <c r="AV21" s="11">
-        <v>3439</v>
+        <v>3573</v>
       </c>
       <c r="AW21" s="11">
-        <v>3573</v>
+        <v>3977</v>
       </c>
       <c r="AX21" s="11">
-        <v>3977</v>
+        <v>3646</v>
       </c>
       <c r="AY21" s="11">
-        <v>3646</v>
+        <v>3543</v>
       </c>
       <c r="AZ21" s="11">
-        <v>3543</v>
+        <v>2973</v>
       </c>
       <c r="BA21" s="11">
-        <v>2973</v>
+        <v>4110</v>
       </c>
       <c r="BB21" s="11">
-        <v>4110</v>
+        <v>3498</v>
       </c>
     </row>
     <row r="22" spans="2:54" x14ac:dyDescent="0.3">
@@ -2631,8 +2631,8 @@
       <c r="Y23" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="Z23" s="15" t="s">
-        <v>59</v>
+      <c r="Z23" s="15">
+        <v>0</v>
       </c>
       <c r="AA23" s="15">
         <v>0</v>
@@ -2847,8 +2847,8 @@
       <c r="Y25" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="Z25" s="11" t="s">
-        <v>59</v>
+      <c r="Z25" s="11">
+        <v>0</v>
       </c>
       <c r="AA25" s="11">
         <v>0</v>
@@ -2874,8 +2874,8 @@
       <c r="AH25" s="11">
         <v>0</v>
       </c>
-      <c r="AI25" s="11">
-        <v>0</v>
+      <c r="AI25" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="AJ25" s="11" t="s">
         <v>59</v>
@@ -2910,12 +2910,12 @@
       <c r="AT25" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AU25" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="AV25" s="11">
+      <c r="AU25" s="11">
         <v>-9</v>
       </c>
+      <c r="AV25" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="AW25" s="11" t="s">
         <v>59</v>
       </c>
@@ -2931,8 +2931,8 @@
       <c r="BA25" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="BB25" s="11" t="s">
-        <v>59</v>
+      <c r="BB25" s="11">
+        <v>-10</v>
       </c>
     </row>
     <row r="26" spans="2:54" x14ac:dyDescent="0.3">
@@ -3004,8 +3004,8 @@
       <c r="Y26" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="Z26" s="17" t="s">
-        <v>59</v>
+      <c r="Z26" s="17">
+        <v>0</v>
       </c>
       <c r="AA26" s="17">
         <v>0</v>
@@ -3068,10 +3068,10 @@
         <v>0</v>
       </c>
       <c r="AU26" s="17">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="AV26" s="17">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="AW26" s="17">
         <v>0</v>
@@ -3089,7 +3089,7 @@
         <v>0</v>
       </c>
       <c r="BB26" s="17">
-        <v>0</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="27" spans="2:54" x14ac:dyDescent="0.3">
@@ -3099,154 +3099,154 @@
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15">
-        <v>2589</v>
+        <v>3379</v>
       </c>
       <c r="F27" s="15">
-        <v>3379</v>
+        <v>3540</v>
       </c>
       <c r="G27" s="15">
-        <v>3540</v>
+        <v>2082</v>
       </c>
       <c r="H27" s="15">
-        <v>2082</v>
+        <v>1880</v>
       </c>
       <c r="I27" s="15">
-        <v>1880</v>
+        <v>2320</v>
       </c>
       <c r="J27" s="15">
-        <v>2320</v>
+        <v>4185</v>
       </c>
       <c r="K27" s="15">
-        <v>4185</v>
+        <v>1466</v>
       </c>
       <c r="L27" s="15">
-        <v>1466</v>
+        <v>2924</v>
       </c>
       <c r="M27" s="15">
-        <v>2924</v>
+        <v>2373</v>
       </c>
       <c r="N27" s="15">
-        <v>2373</v>
+        <v>2415</v>
       </c>
       <c r="O27" s="15">
-        <v>2415</v>
+        <v>2392</v>
       </c>
       <c r="P27" s="15">
-        <v>2392</v>
+        <v>1674</v>
       </c>
       <c r="Q27" s="15">
-        <v>1674</v>
+        <v>2064</v>
       </c>
       <c r="R27" s="15">
-        <v>2064</v>
+        <v>2844</v>
       </c>
       <c r="S27" s="15">
-        <v>2844</v>
+        <v>3023</v>
       </c>
       <c r="T27" s="15">
-        <v>3023</v>
+        <v>3267</v>
       </c>
       <c r="U27" s="15">
-        <v>3267</v>
+        <v>2989</v>
       </c>
       <c r="V27" s="15">
-        <v>2989</v>
+        <v>2486</v>
       </c>
       <c r="W27" s="15">
-        <v>2486</v>
+        <v>2286</v>
       </c>
       <c r="X27" s="15">
-        <v>2286</v>
+        <v>2237</v>
       </c>
       <c r="Y27" s="15">
-        <v>2237</v>
+        <v>3936</v>
       </c>
       <c r="Z27" s="15">
-        <v>3936</v>
+        <v>4061</v>
       </c>
       <c r="AA27" s="15">
-        <v>4061</v>
+        <v>3990</v>
       </c>
       <c r="AB27" s="15">
-        <v>3990</v>
+        <v>3330</v>
       </c>
       <c r="AC27" s="15">
-        <v>3330</v>
+        <v>4227</v>
       </c>
       <c r="AD27" s="15">
-        <v>4227</v>
+        <v>3678</v>
       </c>
       <c r="AE27" s="15">
-        <v>3678</v>
+        <v>3818</v>
       </c>
       <c r="AF27" s="15">
-        <v>3818</v>
+        <v>4436</v>
       </c>
       <c r="AG27" s="15">
-        <v>4436</v>
+        <v>3789</v>
       </c>
       <c r="AH27" s="15">
-        <v>3789</v>
+        <v>4845</v>
       </c>
       <c r="AI27" s="15">
-        <v>4845</v>
+        <v>2866</v>
       </c>
       <c r="AJ27" s="15">
-        <v>2866</v>
+        <v>4235</v>
       </c>
       <c r="AK27" s="15">
-        <v>4235</v>
+        <v>3790</v>
       </c>
       <c r="AL27" s="15">
-        <v>3790</v>
+        <v>3406</v>
       </c>
       <c r="AM27" s="15">
-        <v>3406</v>
+        <v>2735</v>
       </c>
       <c r="AN27" s="15">
-        <v>2735</v>
+        <v>3374</v>
       </c>
       <c r="AO27" s="15">
-        <v>3374</v>
+        <v>3102</v>
       </c>
       <c r="AP27" s="15">
-        <v>3102</v>
+        <v>3380</v>
       </c>
       <c r="AQ27" s="15">
-        <v>3380</v>
+        <v>3129</v>
       </c>
       <c r="AR27" s="15">
-        <v>3129</v>
+        <v>3275</v>
       </c>
       <c r="AS27" s="15">
-        <v>3275</v>
+        <v>3355</v>
       </c>
       <c r="AT27" s="15">
-        <v>3355</v>
+        <v>4512</v>
       </c>
       <c r="AU27" s="15">
-        <v>4512</v>
+        <v>3430</v>
       </c>
       <c r="AV27" s="15">
-        <v>3430</v>
+        <v>3573</v>
       </c>
       <c r="AW27" s="15">
-        <v>3573</v>
+        <v>3977</v>
       </c>
       <c r="AX27" s="15">
-        <v>3977</v>
+        <v>3646</v>
       </c>
       <c r="AY27" s="15">
-        <v>3646</v>
+        <v>3543</v>
       </c>
       <c r="AZ27" s="15">
-        <v>3543</v>
+        <v>2973</v>
       </c>
       <c r="BA27" s="15">
-        <v>2973</v>
+        <v>4110</v>
       </c>
       <c r="BB27" s="15">
-        <v>4110</v>
+        <v>3488</v>
       </c>
     </row>
     <row r="28" spans="2:54" x14ac:dyDescent="0.3">
@@ -3692,154 +3692,154 @@
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11">
-        <v>162984</v>
+        <v>268025</v>
       </c>
       <c r="F34" s="11">
-        <v>268025</v>
+        <v>361661</v>
       </c>
       <c r="G34" s="11">
-        <v>361661</v>
+        <v>226743</v>
       </c>
       <c r="H34" s="11">
-        <v>226743</v>
+        <v>197033</v>
       </c>
       <c r="I34" s="11">
-        <v>197033</v>
+        <v>223090</v>
       </c>
       <c r="J34" s="11">
-        <v>223090</v>
+        <v>407779</v>
       </c>
       <c r="K34" s="11">
-        <v>407779</v>
+        <v>141650</v>
       </c>
       <c r="L34" s="11">
-        <v>141650</v>
+        <v>296569</v>
       </c>
       <c r="M34" s="11">
-        <v>296569</v>
+        <v>241831</v>
       </c>
       <c r="N34" s="11">
-        <v>241831</v>
+        <v>250087</v>
       </c>
       <c r="O34" s="11">
-        <v>250087</v>
+        <v>253544</v>
       </c>
       <c r="P34" s="11">
-        <v>253544</v>
+        <v>188712</v>
       </c>
       <c r="Q34" s="11">
-        <v>188712</v>
+        <v>221469</v>
       </c>
       <c r="R34" s="11">
-        <v>221469</v>
+        <v>282831</v>
       </c>
       <c r="S34" s="11">
-        <v>282831</v>
+        <v>287752</v>
       </c>
       <c r="T34" s="11">
-        <v>287752</v>
+        <v>303808</v>
       </c>
       <c r="U34" s="11">
-        <v>303808</v>
+        <v>283092</v>
       </c>
       <c r="V34" s="11">
-        <v>283092</v>
+        <v>234993</v>
       </c>
       <c r="W34" s="11">
-        <v>234993</v>
+        <v>217409</v>
       </c>
       <c r="X34" s="11">
-        <v>217409</v>
+        <v>202724</v>
       </c>
       <c r="Y34" s="11">
-        <v>202724</v>
+        <v>306722</v>
       </c>
       <c r="Z34" s="11">
-        <v>306722</v>
+        <v>316312</v>
       </c>
       <c r="AA34" s="11">
-        <v>316312</v>
+        <v>379751</v>
       </c>
       <c r="AB34" s="11">
-        <v>379751</v>
+        <v>375814</v>
       </c>
       <c r="AC34" s="11">
-        <v>375814</v>
+        <v>528116</v>
       </c>
       <c r="AD34" s="11">
-        <v>528116</v>
+        <v>511470</v>
       </c>
       <c r="AE34" s="11">
-        <v>511470</v>
+        <v>595845</v>
       </c>
       <c r="AF34" s="11">
-        <v>595845</v>
+        <v>804072</v>
       </c>
       <c r="AG34" s="11">
-        <v>804072</v>
+        <v>727021</v>
       </c>
       <c r="AH34" s="11">
-        <v>727021</v>
+        <v>994137</v>
       </c>
       <c r="AI34" s="11">
-        <v>994137</v>
+        <v>623523</v>
       </c>
       <c r="AJ34" s="11">
-        <v>623523</v>
+        <v>973878</v>
       </c>
       <c r="AK34" s="11">
-        <v>973878</v>
+        <v>865497</v>
       </c>
       <c r="AL34" s="11">
-        <v>865497</v>
+        <v>793727</v>
       </c>
       <c r="AM34" s="11">
-        <v>793727</v>
+        <v>656049</v>
       </c>
       <c r="AN34" s="11">
-        <v>656049</v>
+        <v>830369</v>
       </c>
       <c r="AO34" s="11">
-        <v>830369</v>
+        <v>772467</v>
       </c>
       <c r="AP34" s="11">
-        <v>772467</v>
+        <v>857145</v>
       </c>
       <c r="AQ34" s="11">
-        <v>857145</v>
+        <v>789783</v>
       </c>
       <c r="AR34" s="11">
-        <v>789783</v>
+        <v>845894</v>
       </c>
       <c r="AS34" s="11">
-        <v>845894</v>
+        <v>862837</v>
       </c>
       <c r="AT34" s="11">
-        <v>862837</v>
+        <v>1232793</v>
       </c>
       <c r="AU34" s="11">
-        <v>1232793</v>
+        <v>1148674</v>
       </c>
       <c r="AV34" s="11">
-        <v>1148674</v>
+        <v>1284478</v>
       </c>
       <c r="AW34" s="11">
-        <v>1284478</v>
+        <v>1595925</v>
       </c>
       <c r="AX34" s="11">
-        <v>1595925</v>
+        <v>1559621</v>
       </c>
       <c r="AY34" s="11">
-        <v>1559621</v>
+        <v>1529819</v>
       </c>
       <c r="AZ34" s="11">
-        <v>1529819</v>
+        <v>1162815</v>
       </c>
       <c r="BA34" s="11">
-        <v>1162815</v>
+        <v>1458285</v>
       </c>
       <c r="BB34" s="11">
-        <v>1458285</v>
+        <v>1229977</v>
       </c>
     </row>
     <row r="35" spans="2:54" x14ac:dyDescent="0.3">
@@ -3970,8 +3970,8 @@
       <c r="Y36" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="Z36" s="15" t="s">
-        <v>59</v>
+      <c r="Z36" s="15">
+        <v>0</v>
       </c>
       <c r="AA36" s="15">
         <v>0</v>
@@ -4186,8 +4186,8 @@
       <c r="Y38" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="Z38" s="11" t="s">
-        <v>59</v>
+      <c r="Z38" s="11">
+        <v>0</v>
       </c>
       <c r="AA38" s="11">
         <v>0</v>
@@ -4213,8 +4213,8 @@
       <c r="AH38" s="11">
         <v>0</v>
       </c>
-      <c r="AI38" s="11">
-        <v>0</v>
+      <c r="AI38" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="AJ38" s="11" t="s">
         <v>59</v>
@@ -4249,11 +4249,11 @@
       <c r="AT38" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AU38" s="11" t="s">
-        <v>59</v>
+      <c r="AU38" s="11">
+        <v>-3399</v>
       </c>
       <c r="AV38" s="11">
-        <v>-3399</v>
+        <v>0</v>
       </c>
       <c r="AW38" s="11">
         <v>0</v>
@@ -4271,7 +4271,7 @@
         <v>0</v>
       </c>
       <c r="BB38" s="11">
-        <v>0</v>
+        <v>-3387</v>
       </c>
     </row>
     <row r="39" spans="2:54" x14ac:dyDescent="0.3">
@@ -4345,8 +4345,8 @@
       <c r="Y39" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="Z39" s="17" t="s">
-        <v>59</v>
+      <c r="Z39" s="17">
+        <v>0</v>
       </c>
       <c r="AA39" s="17">
         <v>0</v>
@@ -4409,10 +4409,10 @@
         <v>0</v>
       </c>
       <c r="AU39" s="17">
-        <v>0</v>
+        <v>-3399</v>
       </c>
       <c r="AV39" s="17">
-        <v>-3399</v>
+        <v>0</v>
       </c>
       <c r="AW39" s="17">
         <v>0</v>
@@ -4430,7 +4430,7 @@
         <v>0</v>
       </c>
       <c r="BB39" s="17">
-        <v>0</v>
+        <v>-3387</v>
       </c>
     </row>
     <row r="40" spans="2:54" x14ac:dyDescent="0.3">
@@ -4561,8 +4561,8 @@
       <c r="Y41" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="Z41" s="11" t="s">
-        <v>59</v>
+      <c r="Z41" s="11">
+        <v>0</v>
       </c>
       <c r="AA41" s="11">
         <v>0</v>
@@ -4656,154 +4656,154 @@
       <c r="C42" s="17"/>
       <c r="D42" s="17"/>
       <c r="E42" s="17">
-        <v>162984</v>
+        <v>268025</v>
       </c>
       <c r="F42" s="17">
-        <v>268025</v>
+        <v>361661</v>
       </c>
       <c r="G42" s="17">
-        <v>361661</v>
+        <v>226743</v>
       </c>
       <c r="H42" s="17">
-        <v>226743</v>
+        <v>197033</v>
       </c>
       <c r="I42" s="17">
-        <v>197033</v>
+        <v>223090</v>
       </c>
       <c r="J42" s="17">
-        <v>223090</v>
+        <v>407779</v>
       </c>
       <c r="K42" s="17">
-        <v>407779</v>
+        <v>141650</v>
       </c>
       <c r="L42" s="17">
-        <v>141650</v>
+        <v>296569</v>
       </c>
       <c r="M42" s="17">
-        <v>296569</v>
+        <v>241831</v>
       </c>
       <c r="N42" s="17">
-        <v>241831</v>
+        <v>250087</v>
       </c>
       <c r="O42" s="17">
-        <v>250087</v>
+        <v>253544</v>
       </c>
       <c r="P42" s="17">
-        <v>253544</v>
+        <v>188712</v>
       </c>
       <c r="Q42" s="17">
-        <v>188712</v>
+        <v>221469</v>
       </c>
       <c r="R42" s="17">
-        <v>221469</v>
+        <v>282831</v>
       </c>
       <c r="S42" s="17">
-        <v>282831</v>
+        <v>287752</v>
       </c>
       <c r="T42" s="17">
-        <v>287752</v>
+        <v>303808</v>
       </c>
       <c r="U42" s="17">
-        <v>303808</v>
+        <v>283092</v>
       </c>
       <c r="V42" s="17">
-        <v>283092</v>
+        <v>234993</v>
       </c>
       <c r="W42" s="17">
-        <v>234993</v>
+        <v>217409</v>
       </c>
       <c r="X42" s="17">
-        <v>217409</v>
+        <v>202724</v>
       </c>
       <c r="Y42" s="17">
-        <v>202724</v>
+        <v>306722</v>
       </c>
       <c r="Z42" s="17">
-        <v>306722</v>
+        <v>316312</v>
       </c>
       <c r="AA42" s="17">
-        <v>316312</v>
+        <v>379751</v>
       </c>
       <c r="AB42" s="17">
-        <v>379751</v>
+        <v>375814</v>
       </c>
       <c r="AC42" s="17">
-        <v>375814</v>
+        <v>528116</v>
       </c>
       <c r="AD42" s="17">
-        <v>528116</v>
+        <v>511470</v>
       </c>
       <c r="AE42" s="17">
-        <v>511470</v>
+        <v>595845</v>
       </c>
       <c r="AF42" s="17">
-        <v>595845</v>
+        <v>804072</v>
       </c>
       <c r="AG42" s="17">
-        <v>804072</v>
+        <v>727021</v>
       </c>
       <c r="AH42" s="17">
-        <v>727021</v>
+        <v>994137</v>
       </c>
       <c r="AI42" s="17">
-        <v>994137</v>
+        <v>623523</v>
       </c>
       <c r="AJ42" s="17">
-        <v>623523</v>
+        <v>973878</v>
       </c>
       <c r="AK42" s="17">
-        <v>973878</v>
+        <v>865497</v>
       </c>
       <c r="AL42" s="17">
-        <v>865497</v>
+        <v>793727</v>
       </c>
       <c r="AM42" s="17">
-        <v>793727</v>
+        <v>656049</v>
       </c>
       <c r="AN42" s="17">
-        <v>656049</v>
+        <v>830369</v>
       </c>
       <c r="AO42" s="17">
-        <v>830369</v>
+        <v>772467</v>
       </c>
       <c r="AP42" s="17">
-        <v>772467</v>
+        <v>857145</v>
       </c>
       <c r="AQ42" s="17">
-        <v>857145</v>
+        <v>789783</v>
       </c>
       <c r="AR42" s="17">
-        <v>789783</v>
+        <v>845894</v>
       </c>
       <c r="AS42" s="17">
-        <v>845894</v>
+        <v>862837</v>
       </c>
       <c r="AT42" s="17">
-        <v>862837</v>
+        <v>1232793</v>
       </c>
       <c r="AU42" s="17">
-        <v>1232793</v>
+        <v>1145275</v>
       </c>
       <c r="AV42" s="17">
-        <v>1145275</v>
+        <v>1284478</v>
       </c>
       <c r="AW42" s="17">
-        <v>1284478</v>
+        <v>1595925</v>
       </c>
       <c r="AX42" s="17">
-        <v>1595925</v>
+        <v>1559621</v>
       </c>
       <c r="AY42" s="17">
-        <v>1559621</v>
+        <v>1529819</v>
       </c>
       <c r="AZ42" s="17">
-        <v>1529819</v>
+        <v>1162815</v>
       </c>
       <c r="BA42" s="17">
-        <v>1162815</v>
+        <v>1458285</v>
       </c>
       <c r="BB42" s="17">
-        <v>1458285</v>
+        <v>1226590</v>
       </c>
     </row>
     <row r="43" spans="2:54" x14ac:dyDescent="0.3">
@@ -5249,154 +5249,154 @@
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11">
-        <v>62952491</v>
+        <v>79320805</v>
       </c>
       <c r="F49" s="11">
-        <v>79320805</v>
+        <v>102164124</v>
       </c>
       <c r="G49" s="11">
-        <v>102164124</v>
+        <v>108906340</v>
       </c>
       <c r="H49" s="11">
-        <v>108906340</v>
+        <v>104804787</v>
       </c>
       <c r="I49" s="11">
-        <v>104804787</v>
+        <v>96159483</v>
       </c>
       <c r="J49" s="11">
-        <v>96159483</v>
+        <v>97438232</v>
       </c>
       <c r="K49" s="11">
-        <v>97438232</v>
+        <v>96623465</v>
       </c>
       <c r="L49" s="11">
-        <v>96623465</v>
+        <v>101425787</v>
       </c>
       <c r="M49" s="11">
-        <v>101425787</v>
+        <v>101909397</v>
       </c>
       <c r="N49" s="11">
-        <v>101909397</v>
+        <v>103555694</v>
       </c>
       <c r="O49" s="11">
-        <v>103555694</v>
+        <v>105996656</v>
       </c>
       <c r="P49" s="11">
-        <v>105996656</v>
+        <v>112731183</v>
       </c>
       <c r="Q49" s="11">
-        <v>112731183</v>
+        <v>107300872</v>
       </c>
       <c r="R49" s="11">
-        <v>107300872</v>
+        <v>99448312</v>
       </c>
       <c r="S49" s="11">
-        <v>99448312</v>
+        <v>95187562</v>
       </c>
       <c r="T49" s="11">
-        <v>95187562</v>
+        <v>92992960</v>
       </c>
       <c r="U49" s="11">
-        <v>92992960</v>
+        <v>94711275</v>
       </c>
       <c r="V49" s="11">
-        <v>94711275</v>
+        <v>94526549</v>
       </c>
       <c r="W49" s="11">
-        <v>94526549</v>
+        <v>95104549</v>
       </c>
       <c r="X49" s="11">
-        <v>95104549</v>
+        <v>90623156</v>
       </c>
       <c r="Y49" s="11">
-        <v>90623156</v>
+        <v>77927337</v>
       </c>
       <c r="Z49" s="11">
-        <v>77927337</v>
+        <v>77890175</v>
       </c>
       <c r="AA49" s="11">
-        <v>77890175</v>
+        <v>95175689</v>
       </c>
       <c r="AB49" s="11">
-        <v>95175689</v>
+        <v>112857057</v>
       </c>
       <c r="AC49" s="11">
-        <v>112857057</v>
+        <v>124938727</v>
       </c>
       <c r="AD49" s="11">
-        <v>124938727</v>
+        <v>139061990</v>
       </c>
       <c r="AE49" s="11">
-        <v>139061990</v>
+        <v>156062074</v>
       </c>
       <c r="AF49" s="11">
-        <v>156062074</v>
+        <v>181260595</v>
       </c>
       <c r="AG49" s="11">
-        <v>181260595</v>
+        <v>191876748</v>
       </c>
       <c r="AH49" s="11">
-        <v>191876748</v>
+        <v>205188235</v>
       </c>
       <c r="AI49" s="11">
-        <v>205188235</v>
+        <v>217558618</v>
       </c>
       <c r="AJ49" s="11">
-        <v>217558618</v>
+        <v>229959386</v>
       </c>
       <c r="AK49" s="11">
-        <v>229959386</v>
+        <v>228363325</v>
       </c>
       <c r="AL49" s="11">
-        <v>228363325</v>
+        <v>233037874</v>
       </c>
       <c r="AM49" s="11">
-        <v>233037874</v>
+        <v>239871664</v>
       </c>
       <c r="AN49" s="11">
-        <v>239871664</v>
+        <v>246108180</v>
       </c>
       <c r="AO49" s="11">
-        <v>246108180</v>
+        <v>249022244</v>
       </c>
       <c r="AP49" s="11">
-        <v>249022244</v>
+        <v>253593195</v>
       </c>
       <c r="AQ49" s="11">
-        <v>253593195</v>
+        <v>252407478</v>
       </c>
       <c r="AR49" s="11">
-        <v>252407478</v>
+        <v>258288244</v>
       </c>
       <c r="AS49" s="11">
-        <v>258288244</v>
+        <v>257179434</v>
       </c>
       <c r="AT49" s="11">
-        <v>257179434</v>
+        <v>273225399</v>
       </c>
       <c r="AU49" s="11">
-        <v>273225399</v>
+        <v>334013958</v>
       </c>
       <c r="AV49" s="11">
-        <v>334013958</v>
+        <v>359495662</v>
       </c>
       <c r="AW49" s="11">
-        <v>359495662</v>
+        <v>401288660</v>
       </c>
       <c r="AX49" s="11">
-        <v>401288660</v>
+        <v>427762205</v>
       </c>
       <c r="AY49" s="11">
-        <v>427762205</v>
+        <v>431786339</v>
       </c>
       <c r="AZ49" s="11">
-        <v>431786339</v>
+        <v>391125126</v>
       </c>
       <c r="BA49" s="11">
-        <v>391125126</v>
+        <v>354813869</v>
       </c>
       <c r="BB49" s="11">
-        <v>354813869</v>
+        <v>351622927</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/dode/shekarbon/product/monthly.xlsx
+++ b/database/industries/dode/shekarbon/product/monthly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\dode\shekarbon\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317D4F76-58E6-4157-9CCE-443A96F1D930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29964CBB-32B9-433C-8559-29231280992A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="73">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>شکربن-کربن‌ ایران‌</t>
@@ -37,9 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>ماه 7 منتهی به 1397/07</t>
-  </si>
-  <si>
     <t>ماه 8 منتهی به 1397/08</t>
   </si>
   <si>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>ماه 8 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 9 منتهی به 1401/09</t>
   </si>
   <si>
     <t>دوده صنعتی</t>
@@ -1391,154 +1391,154 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>3230</v>
+        <v>2950</v>
       </c>
       <c r="F11" s="11">
-        <v>2950</v>
+        <v>2680</v>
       </c>
       <c r="G11" s="11">
-        <v>2680</v>
+        <v>2550</v>
       </c>
       <c r="H11" s="11">
-        <v>2550</v>
+        <v>2725</v>
       </c>
       <c r="I11" s="11">
-        <v>2725</v>
+        <v>3337</v>
       </c>
       <c r="J11" s="11">
-        <v>3337</v>
+        <v>2715</v>
       </c>
       <c r="K11" s="11">
+        <v>2278</v>
+      </c>
+      <c r="L11" s="11">
+        <v>2855</v>
+      </c>
+      <c r="M11" s="11">
+        <v>2295</v>
+      </c>
+      <c r="N11" s="11">
+        <v>2735</v>
+      </c>
+      <c r="O11" s="11">
+        <v>2240</v>
+      </c>
+      <c r="P11" s="11">
+        <v>2270</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>1490</v>
+      </c>
+      <c r="R11" s="11">
+        <v>1950</v>
+      </c>
+      <c r="S11" s="11">
+        <v>3290</v>
+      </c>
+      <c r="T11" s="11">
+        <v>2915</v>
+      </c>
+      <c r="U11" s="11">
+        <v>3315</v>
+      </c>
+      <c r="V11" s="11">
+        <v>2540</v>
+      </c>
+      <c r="W11" s="11">
+        <v>2735</v>
+      </c>
+      <c r="X11" s="11">
+        <v>3090</v>
+      </c>
+      <c r="Y11" s="11">
+        <v>3400</v>
+      </c>
+      <c r="Z11" s="11">
+        <v>3530</v>
+      </c>
+      <c r="AA11" s="11">
+        <v>2951</v>
+      </c>
+      <c r="AB11" s="11">
+        <v>4040</v>
+      </c>
+      <c r="AC11" s="11">
+        <v>3225</v>
+      </c>
+      <c r="AD11" s="11">
+        <v>3438</v>
+      </c>
+      <c r="AE11" s="11">
+        <v>4670</v>
+      </c>
+      <c r="AF11" s="11">
+        <v>4320</v>
+      </c>
+      <c r="AG11" s="11">
+        <v>4193</v>
+      </c>
+      <c r="AH11" s="11">
+        <v>3610</v>
+      </c>
+      <c r="AI11" s="11">
+        <v>3760</v>
+      </c>
+      <c r="AJ11" s="11">
+        <v>4125</v>
+      </c>
+      <c r="AK11" s="11">
+        <v>3924</v>
+      </c>
+      <c r="AL11" s="11">
+        <v>4015</v>
+      </c>
+      <c r="AM11" s="11">
+        <v>3683</v>
+      </c>
+      <c r="AN11" s="11">
+        <v>4100</v>
+      </c>
+      <c r="AO11" s="11">
         <v>2715</v>
       </c>
-      <c r="L11" s="11">
-        <v>2278</v>
-      </c>
-      <c r="M11" s="11">
-        <v>2855</v>
-      </c>
-      <c r="N11" s="11">
-        <v>2295</v>
-      </c>
-      <c r="O11" s="11">
-        <v>2735</v>
-      </c>
-      <c r="P11" s="11">
-        <v>2240</v>
-      </c>
-      <c r="Q11" s="11">
-        <v>2270</v>
-      </c>
-      <c r="R11" s="11">
-        <v>1490</v>
-      </c>
-      <c r="S11" s="11">
-        <v>1950</v>
-      </c>
-      <c r="T11" s="11">
-        <v>3290</v>
-      </c>
-      <c r="U11" s="11">
-        <v>2915</v>
-      </c>
-      <c r="V11" s="11">
-        <v>3315</v>
-      </c>
-      <c r="W11" s="11">
-        <v>2540</v>
-      </c>
-      <c r="X11" s="11">
-        <v>2735</v>
-      </c>
-      <c r="Y11" s="11">
-        <v>3090</v>
-      </c>
-      <c r="Z11" s="11">
-        <v>3400</v>
-      </c>
-      <c r="AA11" s="11">
-        <v>3530</v>
-      </c>
-      <c r="AB11" s="11">
-        <v>2951</v>
-      </c>
-      <c r="AC11" s="11">
-        <v>4040</v>
-      </c>
-      <c r="AD11" s="11">
-        <v>3225</v>
-      </c>
-      <c r="AE11" s="11">
-        <v>3438</v>
-      </c>
-      <c r="AF11" s="11">
-        <v>4670</v>
-      </c>
-      <c r="AG11" s="11">
-        <v>4320</v>
-      </c>
-      <c r="AH11" s="11">
-        <v>4193</v>
-      </c>
-      <c r="AI11" s="11">
-        <v>3610</v>
-      </c>
-      <c r="AJ11" s="11">
-        <v>3760</v>
-      </c>
-      <c r="AK11" s="11">
-        <v>4125</v>
-      </c>
-      <c r="AL11" s="11">
-        <v>3924</v>
-      </c>
-      <c r="AM11" s="11">
-        <v>4015</v>
-      </c>
-      <c r="AN11" s="11">
-        <v>3683</v>
-      </c>
-      <c r="AO11" s="11">
-        <v>4100</v>
-      </c>
       <c r="AP11" s="11">
-        <v>2715</v>
+        <v>3855</v>
       </c>
       <c r="AQ11" s="11">
-        <v>3855</v>
+        <v>3827</v>
       </c>
       <c r="AR11" s="11">
-        <v>3827</v>
+        <v>2999</v>
       </c>
       <c r="AS11" s="11">
-        <v>2999</v>
+        <v>3403</v>
       </c>
       <c r="AT11" s="11">
-        <v>3403</v>
+        <v>3890</v>
       </c>
       <c r="AU11" s="11">
-        <v>3890</v>
+        <v>3877</v>
       </c>
       <c r="AV11" s="11">
-        <v>3877</v>
+        <v>3354</v>
       </c>
       <c r="AW11" s="11">
-        <v>3354</v>
+        <v>3897</v>
       </c>
       <c r="AX11" s="11">
-        <v>3897</v>
+        <v>2874</v>
       </c>
       <c r="AY11" s="11">
-        <v>2874</v>
+        <v>4121</v>
       </c>
       <c r="AZ11" s="11">
-        <v>4121</v>
+        <v>3934</v>
       </c>
       <c r="BA11" s="11">
-        <v>3934</v>
+        <v>3832</v>
       </c>
       <c r="BB11" s="11">
-        <v>3832</v>
+        <v>3285</v>
       </c>
     </row>
     <row r="12" spans="2:54" x14ac:dyDescent="0.3">
@@ -1664,8 +1664,8 @@
       <c r="X13" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="Y13" s="15" t="s">
-        <v>59</v>
+      <c r="Y13" s="15">
+        <v>0</v>
       </c>
       <c r="Z13" s="15">
         <v>0</v>
@@ -1762,154 +1762,154 @@
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
       <c r="E14" s="17">
-        <v>3230</v>
+        <v>2950</v>
       </c>
       <c r="F14" s="17">
-        <v>2950</v>
+        <v>2680</v>
       </c>
       <c r="G14" s="17">
-        <v>2680</v>
+        <v>2550</v>
       </c>
       <c r="H14" s="17">
-        <v>2550</v>
+        <v>2725</v>
       </c>
       <c r="I14" s="17">
-        <v>2725</v>
+        <v>3337</v>
       </c>
       <c r="J14" s="17">
-        <v>3337</v>
+        <v>2715</v>
       </c>
       <c r="K14" s="17">
+        <v>2278</v>
+      </c>
+      <c r="L14" s="17">
+        <v>2855</v>
+      </c>
+      <c r="M14" s="17">
+        <v>2295</v>
+      </c>
+      <c r="N14" s="17">
+        <v>2735</v>
+      </c>
+      <c r="O14" s="17">
+        <v>2240</v>
+      </c>
+      <c r="P14" s="17">
+        <v>2270</v>
+      </c>
+      <c r="Q14" s="17">
+        <v>1490</v>
+      </c>
+      <c r="R14" s="17">
+        <v>1950</v>
+      </c>
+      <c r="S14" s="17">
+        <v>3290</v>
+      </c>
+      <c r="T14" s="17">
+        <v>2915</v>
+      </c>
+      <c r="U14" s="17">
+        <v>3315</v>
+      </c>
+      <c r="V14" s="17">
+        <v>2540</v>
+      </c>
+      <c r="W14" s="17">
+        <v>2735</v>
+      </c>
+      <c r="X14" s="17">
+        <v>3090</v>
+      </c>
+      <c r="Y14" s="17">
+        <v>3400</v>
+      </c>
+      <c r="Z14" s="17">
+        <v>3530</v>
+      </c>
+      <c r="AA14" s="17">
+        <v>2951</v>
+      </c>
+      <c r="AB14" s="17">
+        <v>4040</v>
+      </c>
+      <c r="AC14" s="17">
+        <v>3225</v>
+      </c>
+      <c r="AD14" s="17">
+        <v>3438</v>
+      </c>
+      <c r="AE14" s="17">
+        <v>4670</v>
+      </c>
+      <c r="AF14" s="17">
+        <v>4320</v>
+      </c>
+      <c r="AG14" s="17">
+        <v>4193</v>
+      </c>
+      <c r="AH14" s="17">
+        <v>3610</v>
+      </c>
+      <c r="AI14" s="17">
+        <v>3760</v>
+      </c>
+      <c r="AJ14" s="17">
+        <v>4125</v>
+      </c>
+      <c r="AK14" s="17">
+        <v>3924</v>
+      </c>
+      <c r="AL14" s="17">
+        <v>4015</v>
+      </c>
+      <c r="AM14" s="17">
+        <v>3683</v>
+      </c>
+      <c r="AN14" s="17">
+        <v>4100</v>
+      </c>
+      <c r="AO14" s="17">
         <v>2715</v>
       </c>
-      <c r="L14" s="17">
-        <v>2278</v>
-      </c>
-      <c r="M14" s="17">
-        <v>2855</v>
-      </c>
-      <c r="N14" s="17">
-        <v>2295</v>
-      </c>
-      <c r="O14" s="17">
-        <v>2735</v>
-      </c>
-      <c r="P14" s="17">
-        <v>2240</v>
-      </c>
-      <c r="Q14" s="17">
-        <v>2270</v>
-      </c>
-      <c r="R14" s="17">
-        <v>1490</v>
-      </c>
-      <c r="S14" s="17">
-        <v>1950</v>
-      </c>
-      <c r="T14" s="17">
-        <v>3290</v>
-      </c>
-      <c r="U14" s="17">
-        <v>2915</v>
-      </c>
-      <c r="V14" s="17">
-        <v>3315</v>
-      </c>
-      <c r="W14" s="17">
-        <v>2540</v>
-      </c>
-      <c r="X14" s="17">
-        <v>2735</v>
-      </c>
-      <c r="Y14" s="17">
-        <v>3090</v>
-      </c>
-      <c r="Z14" s="17">
-        <v>3400</v>
-      </c>
-      <c r="AA14" s="17">
-        <v>3530</v>
-      </c>
-      <c r="AB14" s="17">
-        <v>2951</v>
-      </c>
-      <c r="AC14" s="17">
-        <v>4040</v>
-      </c>
-      <c r="AD14" s="17">
-        <v>3225</v>
-      </c>
-      <c r="AE14" s="17">
-        <v>3438</v>
-      </c>
-      <c r="AF14" s="17">
-        <v>4670</v>
-      </c>
-      <c r="AG14" s="17">
-        <v>4320</v>
-      </c>
-      <c r="AH14" s="17">
-        <v>4193</v>
-      </c>
-      <c r="AI14" s="17">
-        <v>3610</v>
-      </c>
-      <c r="AJ14" s="17">
-        <v>3760</v>
-      </c>
-      <c r="AK14" s="17">
-        <v>4125</v>
-      </c>
-      <c r="AL14" s="17">
-        <v>3924</v>
-      </c>
-      <c r="AM14" s="17">
-        <v>4015</v>
-      </c>
-      <c r="AN14" s="17">
-        <v>3683</v>
-      </c>
-      <c r="AO14" s="17">
-        <v>4100</v>
-      </c>
       <c r="AP14" s="17">
-        <v>2715</v>
+        <v>3855</v>
       </c>
       <c r="AQ14" s="17">
-        <v>3855</v>
+        <v>3827</v>
       </c>
       <c r="AR14" s="17">
-        <v>3827</v>
+        <v>2999</v>
       </c>
       <c r="AS14" s="17">
-        <v>2999</v>
+        <v>3403</v>
       </c>
       <c r="AT14" s="17">
-        <v>3403</v>
+        <v>3890</v>
       </c>
       <c r="AU14" s="17">
-        <v>3890</v>
+        <v>3877</v>
       </c>
       <c r="AV14" s="17">
-        <v>3877</v>
+        <v>3354</v>
       </c>
       <c r="AW14" s="17">
-        <v>3354</v>
+        <v>3897</v>
       </c>
       <c r="AX14" s="17">
-        <v>3897</v>
+        <v>2874</v>
       </c>
       <c r="AY14" s="17">
-        <v>2874</v>
+        <v>4121</v>
       </c>
       <c r="AZ14" s="17">
-        <v>4121</v>
+        <v>3934</v>
       </c>
       <c r="BA14" s="17">
-        <v>3934</v>
+        <v>3832</v>
       </c>
       <c r="BB14" s="17">
-        <v>3832</v>
+        <v>3285</v>
       </c>
     </row>
     <row r="15" spans="2:54" x14ac:dyDescent="0.3">
@@ -2355,154 +2355,154 @@
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11">
-        <v>3379</v>
+        <v>3540</v>
       </c>
       <c r="F21" s="11">
-        <v>3540</v>
+        <v>2082</v>
       </c>
       <c r="G21" s="11">
-        <v>2082</v>
+        <v>1880</v>
       </c>
       <c r="H21" s="11">
-        <v>1880</v>
+        <v>2320</v>
       </c>
       <c r="I21" s="11">
-        <v>2320</v>
+        <v>4185</v>
       </c>
       <c r="J21" s="11">
-        <v>4185</v>
+        <v>1466</v>
       </c>
       <c r="K21" s="11">
-        <v>1466</v>
+        <v>2924</v>
       </c>
       <c r="L21" s="11">
-        <v>2924</v>
+        <v>2373</v>
       </c>
       <c r="M21" s="11">
-        <v>2373</v>
+        <v>2415</v>
       </c>
       <c r="N21" s="11">
-        <v>2415</v>
+        <v>2392</v>
       </c>
       <c r="O21" s="11">
-        <v>2392</v>
+        <v>1674</v>
       </c>
       <c r="P21" s="11">
-        <v>1674</v>
+        <v>2064</v>
       </c>
       <c r="Q21" s="11">
-        <v>2064</v>
+        <v>2844</v>
       </c>
       <c r="R21" s="11">
-        <v>2844</v>
+        <v>3023</v>
       </c>
       <c r="S21" s="11">
-        <v>3023</v>
+        <v>3267</v>
       </c>
       <c r="T21" s="11">
-        <v>3267</v>
+        <v>2989</v>
       </c>
       <c r="U21" s="11">
-        <v>2989</v>
+        <v>2486</v>
       </c>
       <c r="V21" s="11">
-        <v>2486</v>
+        <v>2286</v>
       </c>
       <c r="W21" s="11">
-        <v>2286</v>
+        <v>2237</v>
       </c>
       <c r="X21" s="11">
-        <v>2237</v>
+        <v>3936</v>
       </c>
       <c r="Y21" s="11">
-        <v>3936</v>
+        <v>4061</v>
       </c>
       <c r="Z21" s="11">
-        <v>4061</v>
+        <v>3990</v>
       </c>
       <c r="AA21" s="11">
-        <v>3990</v>
+        <v>3330</v>
       </c>
       <c r="AB21" s="11">
-        <v>3330</v>
+        <v>4227</v>
       </c>
       <c r="AC21" s="11">
-        <v>4227</v>
+        <v>3678</v>
       </c>
       <c r="AD21" s="11">
-        <v>3678</v>
+        <v>3818</v>
       </c>
       <c r="AE21" s="11">
-        <v>3818</v>
+        <v>4436</v>
       </c>
       <c r="AF21" s="11">
-        <v>4436</v>
+        <v>3789</v>
       </c>
       <c r="AG21" s="11">
-        <v>3789</v>
+        <v>4845</v>
       </c>
       <c r="AH21" s="11">
-        <v>4845</v>
+        <v>2866</v>
       </c>
       <c r="AI21" s="11">
-        <v>2866</v>
+        <v>4235</v>
       </c>
       <c r="AJ21" s="11">
-        <v>4235</v>
+        <v>3790</v>
       </c>
       <c r="AK21" s="11">
-        <v>3790</v>
+        <v>3406</v>
       </c>
       <c r="AL21" s="11">
-        <v>3406</v>
+        <v>2735</v>
       </c>
       <c r="AM21" s="11">
-        <v>2735</v>
+        <v>3374</v>
       </c>
       <c r="AN21" s="11">
-        <v>3374</v>
+        <v>3102</v>
       </c>
       <c r="AO21" s="11">
-        <v>3102</v>
+        <v>3380</v>
       </c>
       <c r="AP21" s="11">
-        <v>3380</v>
+        <v>3129</v>
       </c>
       <c r="AQ21" s="11">
-        <v>3129</v>
+        <v>3275</v>
       </c>
       <c r="AR21" s="11">
-        <v>3275</v>
+        <v>3355</v>
       </c>
       <c r="AS21" s="11">
-        <v>3355</v>
+        <v>4512</v>
       </c>
       <c r="AT21" s="11">
-        <v>4512</v>
+        <v>3439</v>
       </c>
       <c r="AU21" s="11">
-        <v>3439</v>
+        <v>3573</v>
       </c>
       <c r="AV21" s="11">
-        <v>3573</v>
+        <v>3977</v>
       </c>
       <c r="AW21" s="11">
-        <v>3977</v>
+        <v>3646</v>
       </c>
       <c r="AX21" s="11">
-        <v>3646</v>
+        <v>3543</v>
       </c>
       <c r="AY21" s="11">
-        <v>3543</v>
+        <v>2973</v>
       </c>
       <c r="AZ21" s="11">
-        <v>2973</v>
+        <v>4110</v>
       </c>
       <c r="BA21" s="11">
-        <v>4110</v>
+        <v>3498</v>
       </c>
       <c r="BB21" s="11">
-        <v>3498</v>
+        <v>3872</v>
       </c>
     </row>
     <row r="22" spans="2:54" x14ac:dyDescent="0.3">
@@ -2628,8 +2628,8 @@
       <c r="X23" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="Y23" s="15" t="s">
-        <v>59</v>
+      <c r="Y23" s="15">
+        <v>0</v>
       </c>
       <c r="Z23" s="15">
         <v>0</v>
@@ -2844,8 +2844,8 @@
       <c r="X25" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="Y25" s="11" t="s">
-        <v>59</v>
+      <c r="Y25" s="11">
+        <v>0</v>
       </c>
       <c r="Z25" s="11">
         <v>0</v>
@@ -2871,8 +2871,8 @@
       <c r="AG25" s="11">
         <v>0</v>
       </c>
-      <c r="AH25" s="11">
-        <v>0</v>
+      <c r="AH25" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="AI25" s="11" t="s">
         <v>59</v>
@@ -2907,12 +2907,12 @@
       <c r="AS25" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AT25" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="AU25" s="11">
+      <c r="AT25" s="11">
         <v>-9</v>
       </c>
+      <c r="AU25" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="AV25" s="11" t="s">
         <v>59</v>
       </c>
@@ -2928,11 +2928,11 @@
       <c r="AZ25" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="BA25" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="BB25" s="11">
+      <c r="BA25" s="11">
         <v>-10</v>
+      </c>
+      <c r="BB25" s="11" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="2:54" x14ac:dyDescent="0.3">
@@ -3001,8 +3001,8 @@
       <c r="X26" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="Y26" s="17" t="s">
-        <v>59</v>
+      <c r="Y26" s="17">
+        <v>0</v>
       </c>
       <c r="Z26" s="17">
         <v>0</v>
@@ -3065,10 +3065,10 @@
         <v>0</v>
       </c>
       <c r="AT26" s="17">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="AU26" s="17">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="AV26" s="17">
         <v>0</v>
@@ -3086,10 +3086,10 @@
         <v>0</v>
       </c>
       <c r="BA26" s="17">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="BB26" s="17">
-        <v>-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:54" x14ac:dyDescent="0.3">
@@ -3099,154 +3099,154 @@
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15">
-        <v>3379</v>
+        <v>3540</v>
       </c>
       <c r="F27" s="15">
-        <v>3540</v>
+        <v>2082</v>
       </c>
       <c r="G27" s="15">
-        <v>2082</v>
+        <v>1880</v>
       </c>
       <c r="H27" s="15">
-        <v>1880</v>
+        <v>2320</v>
       </c>
       <c r="I27" s="15">
-        <v>2320</v>
+        <v>4185</v>
       </c>
       <c r="J27" s="15">
-        <v>4185</v>
+        <v>1466</v>
       </c>
       <c r="K27" s="15">
-        <v>1466</v>
+        <v>2924</v>
       </c>
       <c r="L27" s="15">
-        <v>2924</v>
+        <v>2373</v>
       </c>
       <c r="M27" s="15">
-        <v>2373</v>
+        <v>2415</v>
       </c>
       <c r="N27" s="15">
-        <v>2415</v>
+        <v>2392</v>
       </c>
       <c r="O27" s="15">
-        <v>2392</v>
+        <v>1674</v>
       </c>
       <c r="P27" s="15">
-        <v>1674</v>
+        <v>2064</v>
       </c>
       <c r="Q27" s="15">
-        <v>2064</v>
+        <v>2844</v>
       </c>
       <c r="R27" s="15">
-        <v>2844</v>
+        <v>3023</v>
       </c>
       <c r="S27" s="15">
-        <v>3023</v>
+        <v>3267</v>
       </c>
       <c r="T27" s="15">
-        <v>3267</v>
+        <v>2989</v>
       </c>
       <c r="U27" s="15">
-        <v>2989</v>
+        <v>2486</v>
       </c>
       <c r="V27" s="15">
-        <v>2486</v>
+        <v>2286</v>
       </c>
       <c r="W27" s="15">
-        <v>2286</v>
+        <v>2237</v>
       </c>
       <c r="X27" s="15">
-        <v>2237</v>
+        <v>3936</v>
       </c>
       <c r="Y27" s="15">
-        <v>3936</v>
+        <v>4061</v>
       </c>
       <c r="Z27" s="15">
-        <v>4061</v>
+        <v>3990</v>
       </c>
       <c r="AA27" s="15">
-        <v>3990</v>
+        <v>3330</v>
       </c>
       <c r="AB27" s="15">
-        <v>3330</v>
+        <v>4227</v>
       </c>
       <c r="AC27" s="15">
-        <v>4227</v>
+        <v>3678</v>
       </c>
       <c r="AD27" s="15">
-        <v>3678</v>
+        <v>3818</v>
       </c>
       <c r="AE27" s="15">
-        <v>3818</v>
+        <v>4436</v>
       </c>
       <c r="AF27" s="15">
-        <v>4436</v>
+        <v>3789</v>
       </c>
       <c r="AG27" s="15">
-        <v>3789</v>
+        <v>4845</v>
       </c>
       <c r="AH27" s="15">
-        <v>4845</v>
+        <v>2866</v>
       </c>
       <c r="AI27" s="15">
-        <v>2866</v>
+        <v>4235</v>
       </c>
       <c r="AJ27" s="15">
-        <v>4235</v>
+        <v>3790</v>
       </c>
       <c r="AK27" s="15">
-        <v>3790</v>
+        <v>3406</v>
       </c>
       <c r="AL27" s="15">
-        <v>3406</v>
+        <v>2735</v>
       </c>
       <c r="AM27" s="15">
-        <v>2735</v>
+        <v>3374</v>
       </c>
       <c r="AN27" s="15">
-        <v>3374</v>
+        <v>3102</v>
       </c>
       <c r="AO27" s="15">
-        <v>3102</v>
+        <v>3380</v>
       </c>
       <c r="AP27" s="15">
-        <v>3380</v>
+        <v>3129</v>
       </c>
       <c r="AQ27" s="15">
-        <v>3129</v>
+        <v>3275</v>
       </c>
       <c r="AR27" s="15">
-        <v>3275</v>
+        <v>3355</v>
       </c>
       <c r="AS27" s="15">
-        <v>3355</v>
+        <v>4512</v>
       </c>
       <c r="AT27" s="15">
-        <v>4512</v>
+        <v>3430</v>
       </c>
       <c r="AU27" s="15">
-        <v>3430</v>
+        <v>3573</v>
       </c>
       <c r="AV27" s="15">
-        <v>3573</v>
+        <v>3977</v>
       </c>
       <c r="AW27" s="15">
-        <v>3977</v>
+        <v>3646</v>
       </c>
       <c r="AX27" s="15">
-        <v>3646</v>
+        <v>3543</v>
       </c>
       <c r="AY27" s="15">
-        <v>3543</v>
+        <v>2973</v>
       </c>
       <c r="AZ27" s="15">
-        <v>2973</v>
+        <v>4110</v>
       </c>
       <c r="BA27" s="15">
-        <v>4110</v>
+        <v>3488</v>
       </c>
       <c r="BB27" s="15">
-        <v>3488</v>
+        <v>3872</v>
       </c>
     </row>
     <row r="28" spans="2:54" x14ac:dyDescent="0.3">
@@ -3692,154 +3692,154 @@
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11">
-        <v>268025</v>
+        <v>361661</v>
       </c>
       <c r="F34" s="11">
-        <v>361661</v>
+        <v>226743</v>
       </c>
       <c r="G34" s="11">
-        <v>226743</v>
+        <v>197033</v>
       </c>
       <c r="H34" s="11">
-        <v>197033</v>
+        <v>223090</v>
       </c>
       <c r="I34" s="11">
-        <v>223090</v>
+        <v>407779</v>
       </c>
       <c r="J34" s="11">
-        <v>407779</v>
+        <v>141650</v>
       </c>
       <c r="K34" s="11">
-        <v>141650</v>
+        <v>296569</v>
       </c>
       <c r="L34" s="11">
-        <v>296569</v>
+        <v>241831</v>
       </c>
       <c r="M34" s="11">
-        <v>241831</v>
+        <v>250087</v>
       </c>
       <c r="N34" s="11">
-        <v>250087</v>
+        <v>253544</v>
       </c>
       <c r="O34" s="11">
-        <v>253544</v>
+        <v>188712</v>
       </c>
       <c r="P34" s="11">
-        <v>188712</v>
+        <v>221469</v>
       </c>
       <c r="Q34" s="11">
-        <v>221469</v>
+        <v>282831</v>
       </c>
       <c r="R34" s="11">
-        <v>282831</v>
+        <v>287752</v>
       </c>
       <c r="S34" s="11">
-        <v>287752</v>
+        <v>303808</v>
       </c>
       <c r="T34" s="11">
-        <v>303808</v>
+        <v>283092</v>
       </c>
       <c r="U34" s="11">
-        <v>283092</v>
+        <v>234993</v>
       </c>
       <c r="V34" s="11">
-        <v>234993</v>
+        <v>217409</v>
       </c>
       <c r="W34" s="11">
-        <v>217409</v>
+        <v>202724</v>
       </c>
       <c r="X34" s="11">
-        <v>202724</v>
+        <v>306722</v>
       </c>
       <c r="Y34" s="11">
-        <v>306722</v>
+        <v>316312</v>
       </c>
       <c r="Z34" s="11">
-        <v>316312</v>
+        <v>379751</v>
       </c>
       <c r="AA34" s="11">
-        <v>379751</v>
+        <v>375814</v>
       </c>
       <c r="AB34" s="11">
-        <v>375814</v>
+        <v>528116</v>
       </c>
       <c r="AC34" s="11">
-        <v>528116</v>
+        <v>511470</v>
       </c>
       <c r="AD34" s="11">
-        <v>511470</v>
+        <v>595845</v>
       </c>
       <c r="AE34" s="11">
-        <v>595845</v>
+        <v>804072</v>
       </c>
       <c r="AF34" s="11">
-        <v>804072</v>
+        <v>727021</v>
       </c>
       <c r="AG34" s="11">
-        <v>727021</v>
+        <v>994137</v>
       </c>
       <c r="AH34" s="11">
-        <v>994137</v>
+        <v>623523</v>
       </c>
       <c r="AI34" s="11">
-        <v>623523</v>
+        <v>973878</v>
       </c>
       <c r="AJ34" s="11">
-        <v>973878</v>
+        <v>865497</v>
       </c>
       <c r="AK34" s="11">
-        <v>865497</v>
+        <v>793727</v>
       </c>
       <c r="AL34" s="11">
-        <v>793727</v>
+        <v>656049</v>
       </c>
       <c r="AM34" s="11">
-        <v>656049</v>
+        <v>830369</v>
       </c>
       <c r="AN34" s="11">
-        <v>830369</v>
+        <v>772467</v>
       </c>
       <c r="AO34" s="11">
-        <v>772467</v>
+        <v>857145</v>
       </c>
       <c r="AP34" s="11">
-        <v>857145</v>
+        <v>789783</v>
       </c>
       <c r="AQ34" s="11">
-        <v>789783</v>
+        <v>845894</v>
       </c>
       <c r="AR34" s="11">
-        <v>845894</v>
+        <v>862837</v>
       </c>
       <c r="AS34" s="11">
-        <v>862837</v>
+        <v>1232793</v>
       </c>
       <c r="AT34" s="11">
-        <v>1232793</v>
+        <v>1148674</v>
       </c>
       <c r="AU34" s="11">
-        <v>1148674</v>
+        <v>1284478</v>
       </c>
       <c r="AV34" s="11">
-        <v>1284478</v>
+        <v>1595925</v>
       </c>
       <c r="AW34" s="11">
-        <v>1595925</v>
+        <v>1559621</v>
       </c>
       <c r="AX34" s="11">
-        <v>1559621</v>
+        <v>1529819</v>
       </c>
       <c r="AY34" s="11">
-        <v>1529819</v>
+        <v>1162815</v>
       </c>
       <c r="AZ34" s="11">
-        <v>1162815</v>
+        <v>1458285</v>
       </c>
       <c r="BA34" s="11">
-        <v>1458285</v>
+        <v>1229977</v>
       </c>
       <c r="BB34" s="11">
-        <v>1229977</v>
+        <v>1318457</v>
       </c>
     </row>
     <row r="35" spans="2:54" x14ac:dyDescent="0.3">
@@ -3967,8 +3967,8 @@
       <c r="X36" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="Y36" s="15" t="s">
-        <v>59</v>
+      <c r="Y36" s="15">
+        <v>0</v>
       </c>
       <c r="Z36" s="15">
         <v>0</v>
@@ -4183,8 +4183,8 @@
       <c r="X38" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="Y38" s="11" t="s">
-        <v>59</v>
+      <c r="Y38" s="11">
+        <v>0</v>
       </c>
       <c r="Z38" s="11">
         <v>0</v>
@@ -4210,8 +4210,8 @@
       <c r="AG38" s="11">
         <v>0</v>
       </c>
-      <c r="AH38" s="11">
-        <v>0</v>
+      <c r="AH38" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="AI38" s="11" t="s">
         <v>59</v>
@@ -4246,11 +4246,11 @@
       <c r="AS38" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AT38" s="11" t="s">
-        <v>59</v>
+      <c r="AT38" s="11">
+        <v>-3399</v>
       </c>
       <c r="AU38" s="11">
-        <v>-3399</v>
+        <v>0</v>
       </c>
       <c r="AV38" s="11">
         <v>0</v>
@@ -4268,10 +4268,10 @@
         <v>0</v>
       </c>
       <c r="BA38" s="11">
-        <v>0</v>
+        <v>-3387</v>
       </c>
       <c r="BB38" s="11">
-        <v>-3387</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="2:54" x14ac:dyDescent="0.3">
@@ -4342,8 +4342,8 @@
       <c r="X39" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="Y39" s="17" t="s">
-        <v>59</v>
+      <c r="Y39" s="17">
+        <v>0</v>
       </c>
       <c r="Z39" s="17">
         <v>0</v>
@@ -4406,10 +4406,10 @@
         <v>0</v>
       </c>
       <c r="AT39" s="17">
-        <v>0</v>
+        <v>-3399</v>
       </c>
       <c r="AU39" s="17">
-        <v>-3399</v>
+        <v>0</v>
       </c>
       <c r="AV39" s="17">
         <v>0</v>
@@ -4427,10 +4427,10 @@
         <v>0</v>
       </c>
       <c r="BA39" s="17">
-        <v>0</v>
+        <v>-3387</v>
       </c>
       <c r="BB39" s="17">
-        <v>-3387</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:54" x14ac:dyDescent="0.3">
@@ -4558,8 +4558,8 @@
       <c r="X41" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="Y41" s="11" t="s">
-        <v>59</v>
+      <c r="Y41" s="11">
+        <v>0</v>
       </c>
       <c r="Z41" s="11">
         <v>0</v>
@@ -4656,154 +4656,154 @@
       <c r="C42" s="17"/>
       <c r="D42" s="17"/>
       <c r="E42" s="17">
-        <v>268025</v>
+        <v>361661</v>
       </c>
       <c r="F42" s="17">
-        <v>361661</v>
+        <v>226743</v>
       </c>
       <c r="G42" s="17">
-        <v>226743</v>
+        <v>197033</v>
       </c>
       <c r="H42" s="17">
-        <v>197033</v>
+        <v>223090</v>
       </c>
       <c r="I42" s="17">
-        <v>223090</v>
+        <v>407779</v>
       </c>
       <c r="J42" s="17">
-        <v>407779</v>
+        <v>141650</v>
       </c>
       <c r="K42" s="17">
-        <v>141650</v>
+        <v>296569</v>
       </c>
       <c r="L42" s="17">
-        <v>296569</v>
+        <v>241831</v>
       </c>
       <c r="M42" s="17">
-        <v>241831</v>
+        <v>250087</v>
       </c>
       <c r="N42" s="17">
-        <v>250087</v>
+        <v>253544</v>
       </c>
       <c r="O42" s="17">
-        <v>253544</v>
+        <v>188712</v>
       </c>
       <c r="P42" s="17">
-        <v>188712</v>
+        <v>221469</v>
       </c>
       <c r="Q42" s="17">
-        <v>221469</v>
+        <v>282831</v>
       </c>
       <c r="R42" s="17">
-        <v>282831</v>
+        <v>287752</v>
       </c>
       <c r="S42" s="17">
-        <v>287752</v>
+        <v>303808</v>
       </c>
       <c r="T42" s="17">
-        <v>303808</v>
+        <v>283092</v>
       </c>
       <c r="U42" s="17">
-        <v>283092</v>
+        <v>234993</v>
       </c>
       <c r="V42" s="17">
-        <v>234993</v>
+        <v>217409</v>
       </c>
       <c r="W42" s="17">
-        <v>217409</v>
+        <v>202724</v>
       </c>
       <c r="X42" s="17">
-        <v>202724</v>
+        <v>306722</v>
       </c>
       <c r="Y42" s="17">
-        <v>306722</v>
+        <v>316312</v>
       </c>
       <c r="Z42" s="17">
-        <v>316312</v>
+        <v>379751</v>
       </c>
       <c r="AA42" s="17">
-        <v>379751</v>
+        <v>375814</v>
       </c>
       <c r="AB42" s="17">
-        <v>375814</v>
+        <v>528116</v>
       </c>
       <c r="AC42" s="17">
-        <v>528116</v>
+        <v>511470</v>
       </c>
       <c r="AD42" s="17">
-        <v>511470</v>
+        <v>595845</v>
       </c>
       <c r="AE42" s="17">
-        <v>595845</v>
+        <v>804072</v>
       </c>
       <c r="AF42" s="17">
-        <v>804072</v>
+        <v>727021</v>
       </c>
       <c r="AG42" s="17">
-        <v>727021</v>
+        <v>994137</v>
       </c>
       <c r="AH42" s="17">
-        <v>994137</v>
+        <v>623523</v>
       </c>
       <c r="AI42" s="17">
-        <v>623523</v>
+        <v>973878</v>
       </c>
       <c r="AJ42" s="17">
-        <v>973878</v>
+        <v>865497</v>
       </c>
       <c r="AK42" s="17">
-        <v>865497</v>
+        <v>793727</v>
       </c>
       <c r="AL42" s="17">
-        <v>793727</v>
+        <v>656049</v>
       </c>
       <c r="AM42" s="17">
-        <v>656049</v>
+        <v>830369</v>
       </c>
       <c r="AN42" s="17">
-        <v>830369</v>
+        <v>772467</v>
       </c>
       <c r="AO42" s="17">
-        <v>772467</v>
+        <v>857145</v>
       </c>
       <c r="AP42" s="17">
-        <v>857145</v>
+        <v>789783</v>
       </c>
       <c r="AQ42" s="17">
-        <v>789783</v>
+        <v>845894</v>
       </c>
       <c r="AR42" s="17">
-        <v>845894</v>
+        <v>862837</v>
       </c>
       <c r="AS42" s="17">
-        <v>862837</v>
+        <v>1232793</v>
       </c>
       <c r="AT42" s="17">
-        <v>1232793</v>
+        <v>1145275</v>
       </c>
       <c r="AU42" s="17">
-        <v>1145275</v>
+        <v>1284478</v>
       </c>
       <c r="AV42" s="17">
-        <v>1284478</v>
+        <v>1595925</v>
       </c>
       <c r="AW42" s="17">
-        <v>1595925</v>
+        <v>1559621</v>
       </c>
       <c r="AX42" s="17">
-        <v>1559621</v>
+        <v>1529819</v>
       </c>
       <c r="AY42" s="17">
-        <v>1529819</v>
+        <v>1162815</v>
       </c>
       <c r="AZ42" s="17">
-        <v>1162815</v>
+        <v>1458285</v>
       </c>
       <c r="BA42" s="17">
-        <v>1458285</v>
+        <v>1226590</v>
       </c>
       <c r="BB42" s="17">
-        <v>1226590</v>
+        <v>1318457</v>
       </c>
     </row>
     <row r="43" spans="2:54" x14ac:dyDescent="0.3">
@@ -5249,154 +5249,154 @@
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11">
-        <v>79320805</v>
+        <v>102164124</v>
       </c>
       <c r="F49" s="11">
-        <v>102164124</v>
+        <v>108906340</v>
       </c>
       <c r="G49" s="11">
-        <v>108906340</v>
+        <v>104804787</v>
       </c>
       <c r="H49" s="11">
-        <v>104804787</v>
+        <v>96159483</v>
       </c>
       <c r="I49" s="11">
-        <v>96159483</v>
+        <v>97438232</v>
       </c>
       <c r="J49" s="11">
-        <v>97438232</v>
+        <v>96623465</v>
       </c>
       <c r="K49" s="11">
-        <v>96623465</v>
+        <v>101425787</v>
       </c>
       <c r="L49" s="11">
-        <v>101425787</v>
+        <v>101909397</v>
       </c>
       <c r="M49" s="11">
-        <v>101909397</v>
+        <v>103555694</v>
       </c>
       <c r="N49" s="11">
-        <v>103555694</v>
+        <v>105996656</v>
       </c>
       <c r="O49" s="11">
-        <v>105996656</v>
+        <v>112731183</v>
       </c>
       <c r="P49" s="11">
-        <v>112731183</v>
+        <v>107300872</v>
       </c>
       <c r="Q49" s="11">
-        <v>107300872</v>
+        <v>99448312</v>
       </c>
       <c r="R49" s="11">
-        <v>99448312</v>
+        <v>95187562</v>
       </c>
       <c r="S49" s="11">
-        <v>95187562</v>
+        <v>92992960</v>
       </c>
       <c r="T49" s="11">
-        <v>92992960</v>
+        <v>94711275</v>
       </c>
       <c r="U49" s="11">
-        <v>94711275</v>
+        <v>94526549</v>
       </c>
       <c r="V49" s="11">
-        <v>94526549</v>
+        <v>95104549</v>
       </c>
       <c r="W49" s="11">
-        <v>95104549</v>
+        <v>90623156</v>
       </c>
       <c r="X49" s="11">
-        <v>90623156</v>
+        <v>77927337</v>
       </c>
       <c r="Y49" s="11">
-        <v>77927337</v>
+        <v>77890175</v>
       </c>
       <c r="Z49" s="11">
-        <v>77890175</v>
+        <v>95175689</v>
       </c>
       <c r="AA49" s="11">
-        <v>95175689</v>
+        <v>112857057</v>
       </c>
       <c r="AB49" s="11">
-        <v>112857057</v>
+        <v>124938727</v>
       </c>
       <c r="AC49" s="11">
-        <v>124938727</v>
+        <v>139061990</v>
       </c>
       <c r="AD49" s="11">
-        <v>139061990</v>
+        <v>156062074</v>
       </c>
       <c r="AE49" s="11">
-        <v>156062074</v>
+        <v>181260595</v>
       </c>
       <c r="AF49" s="11">
-        <v>181260595</v>
+        <v>191876748</v>
       </c>
       <c r="AG49" s="11">
-        <v>191876748</v>
+        <v>205188235</v>
       </c>
       <c r="AH49" s="11">
-        <v>205188235</v>
+        <v>217558618</v>
       </c>
       <c r="AI49" s="11">
-        <v>217558618</v>
+        <v>229959386</v>
       </c>
       <c r="AJ49" s="11">
-        <v>229959386</v>
+        <v>228363325</v>
       </c>
       <c r="AK49" s="11">
-        <v>228363325</v>
+        <v>233037874</v>
       </c>
       <c r="AL49" s="11">
-        <v>233037874</v>
+        <v>239871664</v>
       </c>
       <c r="AM49" s="11">
-        <v>239871664</v>
+        <v>246108180</v>
       </c>
       <c r="AN49" s="11">
-        <v>246108180</v>
+        <v>249022244</v>
       </c>
       <c r="AO49" s="11">
-        <v>249022244</v>
+        <v>253593195</v>
       </c>
       <c r="AP49" s="11">
-        <v>253593195</v>
+        <v>252407478</v>
       </c>
       <c r="AQ49" s="11">
-        <v>252407478</v>
+        <v>258288244</v>
       </c>
       <c r="AR49" s="11">
-        <v>258288244</v>
+        <v>257179434</v>
       </c>
       <c r="AS49" s="11">
-        <v>257179434</v>
+        <v>273225399</v>
       </c>
       <c r="AT49" s="11">
-        <v>273225399</v>
+        <v>334013958</v>
       </c>
       <c r="AU49" s="11">
-        <v>334013958</v>
+        <v>359495662</v>
       </c>
       <c r="AV49" s="11">
-        <v>359495662</v>
+        <v>401288660</v>
       </c>
       <c r="AW49" s="11">
-        <v>401288660</v>
+        <v>427762205</v>
       </c>
       <c r="AX49" s="11">
-        <v>427762205</v>
+        <v>431786339</v>
       </c>
       <c r="AY49" s="11">
-        <v>431786339</v>
+        <v>391125126</v>
       </c>
       <c r="AZ49" s="11">
-        <v>391125126</v>
+        <v>354813869</v>
       </c>
       <c r="BA49" s="11">
-        <v>354813869</v>
+        <v>351622927</v>
       </c>
       <c r="BB49" s="11">
-        <v>351622927</v>
+        <v>340510589</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/dode/shekarbon/product/monthly.xlsx
+++ b/database/industries/dode/shekarbon/product/monthly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\dode\shekarbon\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\dode\shekarbon\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29964CBB-32B9-433C-8559-29231280992A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A9590E-BAF9-44FE-A897-8ACF740CDDB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="73">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,12 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>ماه 8 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/09</t>
-  </si>
-  <si>
     <t>ماه 10 منتهی به 1397/10</t>
   </si>
   <si>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 10 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/11</t>
   </si>
   <si>
     <t>دوده صنعتی</t>
@@ -715,12 +715,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -775,7 +775,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -832,7 +832,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -889,7 +889,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -944,7 +944,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1001,7 +1001,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1058,7 +1058,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1113,7 +1113,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1325,7 +1325,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1382,7 +1382,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>55</v>
       </c>
@@ -1391,157 +1391,157 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>2950</v>
+        <v>2550</v>
       </c>
       <c r="F11" s="11">
-        <v>2680</v>
+        <v>2725</v>
       </c>
       <c r="G11" s="11">
-        <v>2550</v>
+        <v>3337</v>
       </c>
       <c r="H11" s="11">
-        <v>2725</v>
+        <v>2715</v>
       </c>
       <c r="I11" s="11">
-        <v>3337</v>
+        <v>2278</v>
       </c>
       <c r="J11" s="11">
+        <v>2855</v>
+      </c>
+      <c r="K11" s="11">
+        <v>2295</v>
+      </c>
+      <c r="L11" s="11">
+        <v>2735</v>
+      </c>
+      <c r="M11" s="11">
+        <v>2240</v>
+      </c>
+      <c r="N11" s="11">
+        <v>2270</v>
+      </c>
+      <c r="O11" s="11">
+        <v>1490</v>
+      </c>
+      <c r="P11" s="11">
+        <v>1950</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>3290</v>
+      </c>
+      <c r="R11" s="11">
+        <v>2915</v>
+      </c>
+      <c r="S11" s="11">
+        <v>3315</v>
+      </c>
+      <c r="T11" s="11">
+        <v>2540</v>
+      </c>
+      <c r="U11" s="11">
+        <v>2735</v>
+      </c>
+      <c r="V11" s="11">
+        <v>3090</v>
+      </c>
+      <c r="W11" s="11">
+        <v>3400</v>
+      </c>
+      <c r="X11" s="11">
+        <v>3530</v>
+      </c>
+      <c r="Y11" s="11">
+        <v>2951</v>
+      </c>
+      <c r="Z11" s="11">
+        <v>4040</v>
+      </c>
+      <c r="AA11" s="11">
+        <v>3225</v>
+      </c>
+      <c r="AB11" s="11">
+        <v>3438</v>
+      </c>
+      <c r="AC11" s="11">
+        <v>4670</v>
+      </c>
+      <c r="AD11" s="11">
+        <v>4320</v>
+      </c>
+      <c r="AE11" s="11">
+        <v>4193</v>
+      </c>
+      <c r="AF11" s="11">
+        <v>3610</v>
+      </c>
+      <c r="AG11" s="11">
+        <v>3760</v>
+      </c>
+      <c r="AH11" s="11">
+        <v>4125</v>
+      </c>
+      <c r="AI11" s="11">
+        <v>3924</v>
+      </c>
+      <c r="AJ11" s="11">
+        <v>4015</v>
+      </c>
+      <c r="AK11" s="11">
+        <v>3683</v>
+      </c>
+      <c r="AL11" s="11">
+        <v>4100</v>
+      </c>
+      <c r="AM11" s="11">
         <v>2715</v>
       </c>
-      <c r="K11" s="11">
-        <v>2278</v>
-      </c>
-      <c r="L11" s="11">
-        <v>2855</v>
-      </c>
-      <c r="M11" s="11">
-        <v>2295</v>
-      </c>
-      <c r="N11" s="11">
-        <v>2735</v>
-      </c>
-      <c r="O11" s="11">
-        <v>2240</v>
-      </c>
-      <c r="P11" s="11">
-        <v>2270</v>
-      </c>
-      <c r="Q11" s="11">
-        <v>1490</v>
-      </c>
-      <c r="R11" s="11">
-        <v>1950</v>
-      </c>
-      <c r="S11" s="11">
-        <v>3290</v>
-      </c>
-      <c r="T11" s="11">
-        <v>2915</v>
-      </c>
-      <c r="U11" s="11">
-        <v>3315</v>
-      </c>
-      <c r="V11" s="11">
-        <v>2540</v>
-      </c>
-      <c r="W11" s="11">
-        <v>2735</v>
-      </c>
-      <c r="X11" s="11">
-        <v>3090</v>
-      </c>
-      <c r="Y11" s="11">
-        <v>3400</v>
-      </c>
-      <c r="Z11" s="11">
-        <v>3530</v>
-      </c>
-      <c r="AA11" s="11">
-        <v>2951</v>
-      </c>
-      <c r="AB11" s="11">
-        <v>4040</v>
-      </c>
-      <c r="AC11" s="11">
-        <v>3225</v>
-      </c>
-      <c r="AD11" s="11">
-        <v>3438</v>
-      </c>
-      <c r="AE11" s="11">
-        <v>4670</v>
-      </c>
-      <c r="AF11" s="11">
-        <v>4320</v>
-      </c>
-      <c r="AG11" s="11">
-        <v>4193</v>
-      </c>
-      <c r="AH11" s="11">
-        <v>3610</v>
-      </c>
-      <c r="AI11" s="11">
-        <v>3760</v>
-      </c>
-      <c r="AJ11" s="11">
-        <v>4125</v>
-      </c>
-      <c r="AK11" s="11">
-        <v>3924</v>
-      </c>
-      <c r="AL11" s="11">
-        <v>4015</v>
-      </c>
-      <c r="AM11" s="11">
-        <v>3683</v>
-      </c>
       <c r="AN11" s="11">
-        <v>4100</v>
+        <v>3855</v>
       </c>
       <c r="AO11" s="11">
-        <v>2715</v>
+        <v>3827</v>
       </c>
       <c r="AP11" s="11">
-        <v>3855</v>
+        <v>2999</v>
       </c>
       <c r="AQ11" s="11">
-        <v>3827</v>
+        <v>3403</v>
       </c>
       <c r="AR11" s="11">
-        <v>2999</v>
+        <v>3890</v>
       </c>
       <c r="AS11" s="11">
-        <v>3403</v>
+        <v>3877</v>
       </c>
       <c r="AT11" s="11">
-        <v>3890</v>
+        <v>3354</v>
       </c>
       <c r="AU11" s="11">
-        <v>3877</v>
+        <v>3897</v>
       </c>
       <c r="AV11" s="11">
-        <v>3354</v>
+        <v>2874</v>
       </c>
       <c r="AW11" s="11">
-        <v>3897</v>
+        <v>4121</v>
       </c>
       <c r="AX11" s="11">
-        <v>2874</v>
+        <v>3934</v>
       </c>
       <c r="AY11" s="11">
-        <v>4121</v>
+        <v>3832</v>
       </c>
       <c r="AZ11" s="11">
-        <v>3934</v>
+        <v>3285</v>
       </c>
       <c r="BA11" s="11">
-        <v>3832</v>
+        <v>3331</v>
       </c>
       <c r="BB11" s="11">
-        <v>3285</v>
+        <v>3391</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>57</v>
       </c>
@@ -1598,7 +1598,7 @@
       <c r="BA12" s="13"/>
       <c r="BB12" s="13"/>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
         <v>58</v>
       </c>
@@ -1658,11 +1658,11 @@
       <c r="V13" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="W13" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="X13" s="15" t="s">
-        <v>59</v>
+      <c r="W13" s="15">
+        <v>0</v>
+      </c>
+      <c r="X13" s="15">
+        <v>0</v>
       </c>
       <c r="Y13" s="15">
         <v>0</v>
@@ -1755,164 +1755,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
         <v>60</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
       <c r="E14" s="17">
-        <v>2950</v>
+        <v>2550</v>
       </c>
       <c r="F14" s="17">
-        <v>2680</v>
+        <v>2725</v>
       </c>
       <c r="G14" s="17">
-        <v>2550</v>
+        <v>3337</v>
       </c>
       <c r="H14" s="17">
-        <v>2725</v>
+        <v>2715</v>
       </c>
       <c r="I14" s="17">
-        <v>3337</v>
+        <v>2278</v>
       </c>
       <c r="J14" s="17">
+        <v>2855</v>
+      </c>
+      <c r="K14" s="17">
+        <v>2295</v>
+      </c>
+      <c r="L14" s="17">
+        <v>2735</v>
+      </c>
+      <c r="M14" s="17">
+        <v>2240</v>
+      </c>
+      <c r="N14" s="17">
+        <v>2270</v>
+      </c>
+      <c r="O14" s="17">
+        <v>1490</v>
+      </c>
+      <c r="P14" s="17">
+        <v>1950</v>
+      </c>
+      <c r="Q14" s="17">
+        <v>3290</v>
+      </c>
+      <c r="R14" s="17">
+        <v>2915</v>
+      </c>
+      <c r="S14" s="17">
+        <v>3315</v>
+      </c>
+      <c r="T14" s="17">
+        <v>2540</v>
+      </c>
+      <c r="U14" s="17">
+        <v>2735</v>
+      </c>
+      <c r="V14" s="17">
+        <v>3090</v>
+      </c>
+      <c r="W14" s="17">
+        <v>3400</v>
+      </c>
+      <c r="X14" s="17">
+        <v>3530</v>
+      </c>
+      <c r="Y14" s="17">
+        <v>2951</v>
+      </c>
+      <c r="Z14" s="17">
+        <v>4040</v>
+      </c>
+      <c r="AA14" s="17">
+        <v>3225</v>
+      </c>
+      <c r="AB14" s="17">
+        <v>3438</v>
+      </c>
+      <c r="AC14" s="17">
+        <v>4670</v>
+      </c>
+      <c r="AD14" s="17">
+        <v>4320</v>
+      </c>
+      <c r="AE14" s="17">
+        <v>4193</v>
+      </c>
+      <c r="AF14" s="17">
+        <v>3610</v>
+      </c>
+      <c r="AG14" s="17">
+        <v>3760</v>
+      </c>
+      <c r="AH14" s="17">
+        <v>4125</v>
+      </c>
+      <c r="AI14" s="17">
+        <v>3924</v>
+      </c>
+      <c r="AJ14" s="17">
+        <v>4015</v>
+      </c>
+      <c r="AK14" s="17">
+        <v>3683</v>
+      </c>
+      <c r="AL14" s="17">
+        <v>4100</v>
+      </c>
+      <c r="AM14" s="17">
         <v>2715</v>
       </c>
-      <c r="K14" s="17">
-        <v>2278</v>
-      </c>
-      <c r="L14" s="17">
-        <v>2855</v>
-      </c>
-      <c r="M14" s="17">
-        <v>2295</v>
-      </c>
-      <c r="N14" s="17">
-        <v>2735</v>
-      </c>
-      <c r="O14" s="17">
-        <v>2240</v>
-      </c>
-      <c r="P14" s="17">
-        <v>2270</v>
-      </c>
-      <c r="Q14" s="17">
-        <v>1490</v>
-      </c>
-      <c r="R14" s="17">
-        <v>1950</v>
-      </c>
-      <c r="S14" s="17">
-        <v>3290</v>
-      </c>
-      <c r="T14" s="17">
-        <v>2915</v>
-      </c>
-      <c r="U14" s="17">
-        <v>3315</v>
-      </c>
-      <c r="V14" s="17">
-        <v>2540</v>
-      </c>
-      <c r="W14" s="17">
-        <v>2735</v>
-      </c>
-      <c r="X14" s="17">
-        <v>3090</v>
-      </c>
-      <c r="Y14" s="17">
-        <v>3400</v>
-      </c>
-      <c r="Z14" s="17">
-        <v>3530</v>
-      </c>
-      <c r="AA14" s="17">
-        <v>2951</v>
-      </c>
-      <c r="AB14" s="17">
-        <v>4040</v>
-      </c>
-      <c r="AC14" s="17">
-        <v>3225</v>
-      </c>
-      <c r="AD14" s="17">
-        <v>3438</v>
-      </c>
-      <c r="AE14" s="17">
-        <v>4670</v>
-      </c>
-      <c r="AF14" s="17">
-        <v>4320</v>
-      </c>
-      <c r="AG14" s="17">
-        <v>4193</v>
-      </c>
-      <c r="AH14" s="17">
-        <v>3610</v>
-      </c>
-      <c r="AI14" s="17">
-        <v>3760</v>
-      </c>
-      <c r="AJ14" s="17">
-        <v>4125</v>
-      </c>
-      <c r="AK14" s="17">
-        <v>3924</v>
-      </c>
-      <c r="AL14" s="17">
-        <v>4015</v>
-      </c>
-      <c r="AM14" s="17">
-        <v>3683</v>
-      </c>
       <c r="AN14" s="17">
-        <v>4100</v>
+        <v>3855</v>
       </c>
       <c r="AO14" s="17">
-        <v>2715</v>
+        <v>3827</v>
       </c>
       <c r="AP14" s="17">
-        <v>3855</v>
+        <v>2999</v>
       </c>
       <c r="AQ14" s="17">
-        <v>3827</v>
+        <v>3403</v>
       </c>
       <c r="AR14" s="17">
-        <v>2999</v>
+        <v>3890</v>
       </c>
       <c r="AS14" s="17">
-        <v>3403</v>
+        <v>3877</v>
       </c>
       <c r="AT14" s="17">
-        <v>3890</v>
+        <v>3354</v>
       </c>
       <c r="AU14" s="17">
-        <v>3877</v>
+        <v>3897</v>
       </c>
       <c r="AV14" s="17">
-        <v>3354</v>
+        <v>2874</v>
       </c>
       <c r="AW14" s="17">
-        <v>3897</v>
+        <v>4121</v>
       </c>
       <c r="AX14" s="17">
-        <v>2874</v>
+        <v>3934</v>
       </c>
       <c r="AY14" s="17">
-        <v>4121</v>
+        <v>3832</v>
       </c>
       <c r="AZ14" s="17">
-        <v>3934</v>
+        <v>3285</v>
       </c>
       <c r="BA14" s="17">
-        <v>3832</v>
+        <v>3331</v>
       </c>
       <c r="BB14" s="17">
-        <v>3285</v>
+        <v>3391</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1967,7 +1967,7 @@
       <c r="BA15" s="1"/>
       <c r="BB15" s="1"/>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -2022,7 +2022,7 @@
       <c r="BA16" s="1"/>
       <c r="BB16" s="1"/>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -2077,7 +2077,7 @@
       <c r="BA17" s="1"/>
       <c r="BB17" s="1"/>
     </row>
-    <row r="18" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
         <v>61</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -2289,7 +2289,7 @@
       <c r="BA19" s="1"/>
       <c r="BB19" s="1"/>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
         <v>61</v>
       </c>
@@ -2346,7 +2346,7 @@
       <c r="BA20" s="9"/>
       <c r="BB20" s="9"/>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>55</v>
       </c>
@@ -2355,157 +2355,157 @@
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11">
-        <v>3540</v>
+        <v>1880</v>
       </c>
       <c r="F21" s="11">
-        <v>2082</v>
+        <v>2320</v>
       </c>
       <c r="G21" s="11">
-        <v>1880</v>
+        <v>4185</v>
       </c>
       <c r="H21" s="11">
-        <v>2320</v>
+        <v>1466</v>
       </c>
       <c r="I21" s="11">
-        <v>4185</v>
+        <v>2924</v>
       </c>
       <c r="J21" s="11">
-        <v>1466</v>
+        <v>2373</v>
       </c>
       <c r="K21" s="11">
-        <v>2924</v>
+        <v>2415</v>
       </c>
       <c r="L21" s="11">
-        <v>2373</v>
+        <v>2392</v>
       </c>
       <c r="M21" s="11">
-        <v>2415</v>
+        <v>1674</v>
       </c>
       <c r="N21" s="11">
-        <v>2392</v>
+        <v>2064</v>
       </c>
       <c r="O21" s="11">
-        <v>1674</v>
+        <v>2844</v>
       </c>
       <c r="P21" s="11">
-        <v>2064</v>
+        <v>3023</v>
       </c>
       <c r="Q21" s="11">
-        <v>2844</v>
+        <v>3267</v>
       </c>
       <c r="R21" s="11">
-        <v>3023</v>
+        <v>2989</v>
       </c>
       <c r="S21" s="11">
-        <v>3267</v>
+        <v>2486</v>
       </c>
       <c r="T21" s="11">
-        <v>2989</v>
+        <v>2286</v>
       </c>
       <c r="U21" s="11">
-        <v>2486</v>
+        <v>2237</v>
       </c>
       <c r="V21" s="11">
-        <v>2286</v>
+        <v>3936</v>
       </c>
       <c r="W21" s="11">
-        <v>2237</v>
+        <v>4061</v>
       </c>
       <c r="X21" s="11">
-        <v>3936</v>
+        <v>3990</v>
       </c>
       <c r="Y21" s="11">
-        <v>4061</v>
+        <v>3330</v>
       </c>
       <c r="Z21" s="11">
-        <v>3990</v>
+        <v>4227</v>
       </c>
       <c r="AA21" s="11">
-        <v>3330</v>
+        <v>3678</v>
       </c>
       <c r="AB21" s="11">
-        <v>4227</v>
+        <v>3818</v>
       </c>
       <c r="AC21" s="11">
-        <v>3678</v>
+        <v>4436</v>
       </c>
       <c r="AD21" s="11">
-        <v>3818</v>
+        <v>3789</v>
       </c>
       <c r="AE21" s="11">
-        <v>4436</v>
+        <v>4845</v>
       </c>
       <c r="AF21" s="11">
-        <v>3789</v>
+        <v>2866</v>
       </c>
       <c r="AG21" s="11">
-        <v>4845</v>
+        <v>4235</v>
       </c>
       <c r="AH21" s="11">
-        <v>2866</v>
+        <v>3790</v>
       </c>
       <c r="AI21" s="11">
-        <v>4235</v>
+        <v>3406</v>
       </c>
       <c r="AJ21" s="11">
-        <v>3790</v>
+        <v>2735</v>
       </c>
       <c r="AK21" s="11">
-        <v>3406</v>
+        <v>3374</v>
       </c>
       <c r="AL21" s="11">
-        <v>2735</v>
+        <v>3102</v>
       </c>
       <c r="AM21" s="11">
-        <v>3374</v>
+        <v>3380</v>
       </c>
       <c r="AN21" s="11">
-        <v>3102</v>
+        <v>3129</v>
       </c>
       <c r="AO21" s="11">
-        <v>3380</v>
+        <v>3275</v>
       </c>
       <c r="AP21" s="11">
-        <v>3129</v>
+        <v>3355</v>
       </c>
       <c r="AQ21" s="11">
-        <v>3275</v>
+        <v>4512</v>
       </c>
       <c r="AR21" s="11">
-        <v>3355</v>
+        <v>3439</v>
       </c>
       <c r="AS21" s="11">
-        <v>4512</v>
+        <v>3573</v>
       </c>
       <c r="AT21" s="11">
-        <v>3439</v>
+        <v>3977</v>
       </c>
       <c r="AU21" s="11">
-        <v>3573</v>
+        <v>3646</v>
       </c>
       <c r="AV21" s="11">
-        <v>3977</v>
+        <v>3543</v>
       </c>
       <c r="AW21" s="11">
-        <v>3646</v>
+        <v>2973</v>
       </c>
       <c r="AX21" s="11">
-        <v>3543</v>
+        <v>4110</v>
       </c>
       <c r="AY21" s="11">
-        <v>2973</v>
+        <v>3498</v>
       </c>
       <c r="AZ21" s="11">
-        <v>4110</v>
+        <v>3872</v>
       </c>
       <c r="BA21" s="11">
-        <v>3498</v>
+        <v>3095</v>
       </c>
       <c r="BB21" s="11">
-        <v>3872</v>
+        <v>4032</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
         <v>57</v>
       </c>
@@ -2562,7 +2562,7 @@
       <c r="BA22" s="13"/>
       <c r="BB22" s="13"/>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
         <v>58</v>
       </c>
@@ -2622,11 +2622,11 @@
       <c r="V23" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="W23" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="X23" s="15" t="s">
-        <v>59</v>
+      <c r="W23" s="15">
+        <v>0</v>
+      </c>
+      <c r="X23" s="15">
+        <v>0</v>
       </c>
       <c r="Y23" s="15">
         <v>0</v>
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
         <v>62</v>
       </c>
@@ -2776,7 +2776,7 @@
       <c r="BA24" s="9"/>
       <c r="BB24" s="9"/>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
         <v>55</v>
       </c>
@@ -2838,11 +2838,11 @@
       <c r="V25" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="W25" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="X25" s="11" t="s">
-        <v>59</v>
+      <c r="W25" s="11">
+        <v>0</v>
+      </c>
+      <c r="X25" s="11">
+        <v>0</v>
       </c>
       <c r="Y25" s="11">
         <v>0</v>
@@ -2865,11 +2865,11 @@
       <c r="AE25" s="11">
         <v>0</v>
       </c>
-      <c r="AF25" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG25" s="11">
-        <v>0</v>
+      <c r="AF25" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG25" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="AH25" s="11" t="s">
         <v>59</v>
@@ -2901,14 +2901,14 @@
       <c r="AQ25" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AR25" s="11" t="s">
-        <v>59</v>
+      <c r="AR25" s="11">
+        <v>-9</v>
       </c>
       <c r="AS25" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AT25" s="11">
-        <v>-9</v>
+      <c r="AT25" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="AU25" s="11" t="s">
         <v>59</v>
@@ -2922,20 +2922,20 @@
       <c r="AX25" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AY25" s="11" t="s">
-        <v>59</v>
+      <c r="AY25" s="11">
+        <v>-10</v>
       </c>
       <c r="AZ25" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="BA25" s="11">
-        <v>-10</v>
-      </c>
-      <c r="BB25" s="11" t="s">
-        <v>59</v>
+      <c r="BA25" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="BB25" s="11">
+        <v>-21</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="16" t="s">
         <v>63</v>
       </c>
@@ -2995,11 +2995,11 @@
       <c r="V26" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="W26" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="X26" s="17" t="s">
-        <v>59</v>
+      <c r="W26" s="17">
+        <v>0</v>
+      </c>
+      <c r="X26" s="17">
+        <v>0</v>
       </c>
       <c r="Y26" s="17">
         <v>0</v>
@@ -3059,13 +3059,13 @@
         <v>0</v>
       </c>
       <c r="AR26" s="17">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="AS26" s="17">
         <v>0</v>
       </c>
       <c r="AT26" s="17">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="AU26" s="17">
         <v>0</v>
@@ -3080,176 +3080,176 @@
         <v>0</v>
       </c>
       <c r="AY26" s="17">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="AZ26" s="17">
         <v>0</v>
       </c>
       <c r="BA26" s="17">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="BB26" s="17">
-        <v>0</v>
+        <v>-21</v>
       </c>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="14" t="s">
         <v>60</v>
       </c>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15">
-        <v>3540</v>
+        <v>1880</v>
       </c>
       <c r="F27" s="15">
-        <v>2082</v>
+        <v>2320</v>
       </c>
       <c r="G27" s="15">
-        <v>1880</v>
+        <v>4185</v>
       </c>
       <c r="H27" s="15">
-        <v>2320</v>
+        <v>1466</v>
       </c>
       <c r="I27" s="15">
-        <v>4185</v>
+        <v>2924</v>
       </c>
       <c r="J27" s="15">
-        <v>1466</v>
+        <v>2373</v>
       </c>
       <c r="K27" s="15">
-        <v>2924</v>
+        <v>2415</v>
       </c>
       <c r="L27" s="15">
-        <v>2373</v>
+        <v>2392</v>
       </c>
       <c r="M27" s="15">
-        <v>2415</v>
+        <v>1674</v>
       </c>
       <c r="N27" s="15">
-        <v>2392</v>
+        <v>2064</v>
       </c>
       <c r="O27" s="15">
-        <v>1674</v>
+        <v>2844</v>
       </c>
       <c r="P27" s="15">
-        <v>2064</v>
+        <v>3023</v>
       </c>
       <c r="Q27" s="15">
-        <v>2844</v>
+        <v>3267</v>
       </c>
       <c r="R27" s="15">
-        <v>3023</v>
+        <v>2989</v>
       </c>
       <c r="S27" s="15">
-        <v>3267</v>
+        <v>2486</v>
       </c>
       <c r="T27" s="15">
-        <v>2989</v>
+        <v>2286</v>
       </c>
       <c r="U27" s="15">
-        <v>2486</v>
+        <v>2237</v>
       </c>
       <c r="V27" s="15">
-        <v>2286</v>
+        <v>3936</v>
       </c>
       <c r="W27" s="15">
-        <v>2237</v>
+        <v>4061</v>
       </c>
       <c r="X27" s="15">
-        <v>3936</v>
+        <v>3990</v>
       </c>
       <c r="Y27" s="15">
-        <v>4061</v>
+        <v>3330</v>
       </c>
       <c r="Z27" s="15">
-        <v>3990</v>
+        <v>4227</v>
       </c>
       <c r="AA27" s="15">
-        <v>3330</v>
+        <v>3678</v>
       </c>
       <c r="AB27" s="15">
-        <v>4227</v>
+        <v>3818</v>
       </c>
       <c r="AC27" s="15">
-        <v>3678</v>
+        <v>4436</v>
       </c>
       <c r="AD27" s="15">
-        <v>3818</v>
+        <v>3789</v>
       </c>
       <c r="AE27" s="15">
-        <v>4436</v>
+        <v>4845</v>
       </c>
       <c r="AF27" s="15">
-        <v>3789</v>
+        <v>2866</v>
       </c>
       <c r="AG27" s="15">
-        <v>4845</v>
+        <v>4235</v>
       </c>
       <c r="AH27" s="15">
-        <v>2866</v>
+        <v>3790</v>
       </c>
       <c r="AI27" s="15">
-        <v>4235</v>
+        <v>3406</v>
       </c>
       <c r="AJ27" s="15">
-        <v>3790</v>
+        <v>2735</v>
       </c>
       <c r="AK27" s="15">
-        <v>3406</v>
+        <v>3374</v>
       </c>
       <c r="AL27" s="15">
-        <v>2735</v>
+        <v>3102</v>
       </c>
       <c r="AM27" s="15">
-        <v>3374</v>
+        <v>3380</v>
       </c>
       <c r="AN27" s="15">
-        <v>3102</v>
+        <v>3129</v>
       </c>
       <c r="AO27" s="15">
-        <v>3380</v>
+        <v>3275</v>
       </c>
       <c r="AP27" s="15">
-        <v>3129</v>
+        <v>3355</v>
       </c>
       <c r="AQ27" s="15">
-        <v>3275</v>
+        <v>4512</v>
       </c>
       <c r="AR27" s="15">
-        <v>3355</v>
+        <v>3430</v>
       </c>
       <c r="AS27" s="15">
-        <v>4512</v>
+        <v>3573</v>
       </c>
       <c r="AT27" s="15">
-        <v>3430</v>
+        <v>3977</v>
       </c>
       <c r="AU27" s="15">
-        <v>3573</v>
+        <v>3646</v>
       </c>
       <c r="AV27" s="15">
-        <v>3977</v>
+        <v>3543</v>
       </c>
       <c r="AW27" s="15">
-        <v>3646</v>
+        <v>2973</v>
       </c>
       <c r="AX27" s="15">
-        <v>3543</v>
+        <v>4110</v>
       </c>
       <c r="AY27" s="15">
-        <v>2973</v>
+        <v>3488</v>
       </c>
       <c r="AZ27" s="15">
-        <v>4110</v>
+        <v>3872</v>
       </c>
       <c r="BA27" s="15">
-        <v>3488</v>
+        <v>3095</v>
       </c>
       <c r="BB27" s="15">
-        <v>3872</v>
+        <v>4011</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -3304,7 +3304,7 @@
       <c r="BA28" s="1"/>
       <c r="BB28" s="1"/>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -3359,7 +3359,7 @@
       <c r="BA29" s="1"/>
       <c r="BB29" s="1"/>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -3414,7 +3414,7 @@
       <c r="BA30" s="1"/>
       <c r="BB30" s="1"/>
     </row>
-    <row r="31" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B31" s="7" t="s">
         <v>64</v>
       </c>
@@ -3571,7 +3571,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -3626,7 +3626,7 @@
       <c r="BA32" s="1"/>
       <c r="BB32" s="1"/>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
         <v>64</v>
       </c>
@@ -3683,7 +3683,7 @@
       <c r="BA33" s="9"/>
       <c r="BB33" s="9"/>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
         <v>55</v>
       </c>
@@ -3692,157 +3692,157 @@
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11">
-        <v>361661</v>
+        <v>197033</v>
       </c>
       <c r="F34" s="11">
-        <v>226743</v>
+        <v>223090</v>
       </c>
       <c r="G34" s="11">
-        <v>197033</v>
+        <v>407779</v>
       </c>
       <c r="H34" s="11">
-        <v>223090</v>
+        <v>141650</v>
       </c>
       <c r="I34" s="11">
-        <v>407779</v>
+        <v>296569</v>
       </c>
       <c r="J34" s="11">
-        <v>141650</v>
+        <v>241831</v>
       </c>
       <c r="K34" s="11">
-        <v>296569</v>
+        <v>250087</v>
       </c>
       <c r="L34" s="11">
-        <v>241831</v>
+        <v>253544</v>
       </c>
       <c r="M34" s="11">
-        <v>250087</v>
+        <v>188712</v>
       </c>
       <c r="N34" s="11">
-        <v>253544</v>
+        <v>221469</v>
       </c>
       <c r="O34" s="11">
-        <v>188712</v>
+        <v>282831</v>
       </c>
       <c r="P34" s="11">
-        <v>221469</v>
+        <v>287752</v>
       </c>
       <c r="Q34" s="11">
-        <v>282831</v>
+        <v>303808</v>
       </c>
       <c r="R34" s="11">
-        <v>287752</v>
+        <v>283092</v>
       </c>
       <c r="S34" s="11">
-        <v>303808</v>
+        <v>234993</v>
       </c>
       <c r="T34" s="11">
-        <v>283092</v>
+        <v>217409</v>
       </c>
       <c r="U34" s="11">
-        <v>234993</v>
+        <v>202724</v>
       </c>
       <c r="V34" s="11">
-        <v>217409</v>
+        <v>306722</v>
       </c>
       <c r="W34" s="11">
-        <v>202724</v>
+        <v>316312</v>
       </c>
       <c r="X34" s="11">
-        <v>306722</v>
+        <v>379751</v>
       </c>
       <c r="Y34" s="11">
-        <v>316312</v>
+        <v>375814</v>
       </c>
       <c r="Z34" s="11">
-        <v>379751</v>
+        <v>528116</v>
       </c>
       <c r="AA34" s="11">
-        <v>375814</v>
+        <v>511470</v>
       </c>
       <c r="AB34" s="11">
-        <v>528116</v>
+        <v>595845</v>
       </c>
       <c r="AC34" s="11">
-        <v>511470</v>
+        <v>804072</v>
       </c>
       <c r="AD34" s="11">
-        <v>595845</v>
+        <v>727021</v>
       </c>
       <c r="AE34" s="11">
-        <v>804072</v>
+        <v>994137</v>
       </c>
       <c r="AF34" s="11">
-        <v>727021</v>
+        <v>623523</v>
       </c>
       <c r="AG34" s="11">
-        <v>994137</v>
+        <v>973878</v>
       </c>
       <c r="AH34" s="11">
-        <v>623523</v>
+        <v>865497</v>
       </c>
       <c r="AI34" s="11">
-        <v>973878</v>
+        <v>793727</v>
       </c>
       <c r="AJ34" s="11">
-        <v>865497</v>
+        <v>656049</v>
       </c>
       <c r="AK34" s="11">
-        <v>793727</v>
+        <v>830369</v>
       </c>
       <c r="AL34" s="11">
-        <v>656049</v>
+        <v>772467</v>
       </c>
       <c r="AM34" s="11">
-        <v>830369</v>
+        <v>857145</v>
       </c>
       <c r="AN34" s="11">
-        <v>772467</v>
+        <v>789783</v>
       </c>
       <c r="AO34" s="11">
-        <v>857145</v>
+        <v>845894</v>
       </c>
       <c r="AP34" s="11">
-        <v>789783</v>
+        <v>862837</v>
       </c>
       <c r="AQ34" s="11">
-        <v>845894</v>
+        <v>1232793</v>
       </c>
       <c r="AR34" s="11">
-        <v>862837</v>
+        <v>1148674</v>
       </c>
       <c r="AS34" s="11">
-        <v>1232793</v>
+        <v>1284478</v>
       </c>
       <c r="AT34" s="11">
-        <v>1148674</v>
+        <v>1595925</v>
       </c>
       <c r="AU34" s="11">
-        <v>1284478</v>
+        <v>1559621</v>
       </c>
       <c r="AV34" s="11">
-        <v>1595925</v>
+        <v>1529819</v>
       </c>
       <c r="AW34" s="11">
-        <v>1559621</v>
+        <v>1162815</v>
       </c>
       <c r="AX34" s="11">
-        <v>1529819</v>
+        <v>1458285</v>
       </c>
       <c r="AY34" s="11">
-        <v>1162815</v>
+        <v>1229977</v>
       </c>
       <c r="AZ34" s="11">
-        <v>1458285</v>
+        <v>1318457</v>
       </c>
       <c r="BA34" s="11">
-        <v>1229977</v>
+        <v>1022661</v>
       </c>
       <c r="BB34" s="11">
-        <v>1318457</v>
+        <v>1382127</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="12" t="s">
         <v>66</v>
       </c>
@@ -3899,7 +3899,7 @@
       <c r="BA35" s="13"/>
       <c r="BB35" s="13"/>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="14" t="s">
         <v>58</v>
       </c>
@@ -3961,11 +3961,11 @@
       <c r="V36" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="W36" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="X36" s="15" t="s">
-        <v>59</v>
+      <c r="W36" s="15">
+        <v>0</v>
+      </c>
+      <c r="X36" s="15">
+        <v>0</v>
       </c>
       <c r="Y36" s="15">
         <v>0</v>
@@ -4058,7 +4058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
         <v>67</v>
       </c>
@@ -4115,7 +4115,7 @@
       <c r="BA37" s="9"/>
       <c r="BB37" s="9"/>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
         <v>55</v>
       </c>
@@ -4177,11 +4177,11 @@
       <c r="V38" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="W38" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="X38" s="11" t="s">
-        <v>59</v>
+      <c r="W38" s="11">
+        <v>0</v>
+      </c>
+      <c r="X38" s="11">
+        <v>0</v>
       </c>
       <c r="Y38" s="11">
         <v>0</v>
@@ -4204,11 +4204,11 @@
       <c r="AE38" s="11">
         <v>0</v>
       </c>
-      <c r="AF38" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG38" s="11">
-        <v>0</v>
+      <c r="AF38" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG38" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="AH38" s="11" t="s">
         <v>59</v>
@@ -4240,14 +4240,14 @@
       <c r="AQ38" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AR38" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS38" s="11" t="s">
-        <v>59</v>
+      <c r="AR38" s="11">
+        <v>-3399</v>
+      </c>
+      <c r="AS38" s="11">
+        <v>0</v>
       </c>
       <c r="AT38" s="11">
-        <v>-3399</v>
+        <v>0</v>
       </c>
       <c r="AU38" s="11">
         <v>0</v>
@@ -4262,19 +4262,19 @@
         <v>0</v>
       </c>
       <c r="AY38" s="11">
-        <v>0</v>
+        <v>-3387</v>
       </c>
       <c r="AZ38" s="11">
         <v>0</v>
       </c>
       <c r="BA38" s="11">
-        <v>-3387</v>
+        <v>0</v>
       </c>
       <c r="BB38" s="11">
-        <v>0</v>
+        <v>-7599</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="16" t="s">
         <v>63</v>
       </c>
@@ -4336,11 +4336,11 @@
       <c r="V39" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="W39" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="X39" s="17" t="s">
-        <v>59</v>
+      <c r="W39" s="17">
+        <v>0</v>
+      </c>
+      <c r="X39" s="17">
+        <v>0</v>
       </c>
       <c r="Y39" s="17">
         <v>0</v>
@@ -4400,13 +4400,13 @@
         <v>0</v>
       </c>
       <c r="AR39" s="17">
-        <v>0</v>
+        <v>-3399</v>
       </c>
       <c r="AS39" s="17">
         <v>0</v>
       </c>
       <c r="AT39" s="17">
-        <v>-3399</v>
+        <v>0</v>
       </c>
       <c r="AU39" s="17">
         <v>0</v>
@@ -4421,19 +4421,19 @@
         <v>0</v>
       </c>
       <c r="AY39" s="17">
-        <v>0</v>
+        <v>-3387</v>
       </c>
       <c r="AZ39" s="17">
         <v>0</v>
       </c>
       <c r="BA39" s="17">
-        <v>-3387</v>
+        <v>0</v>
       </c>
       <c r="BB39" s="17">
-        <v>0</v>
+        <v>-7599</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="8" t="s">
         <v>68</v>
       </c>
@@ -4490,7 +4490,7 @@
       <c r="BA40" s="9"/>
       <c r="BB40" s="9"/>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
         <v>69</v>
       </c>
@@ -4552,11 +4552,11 @@
       <c r="V41" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="W41" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="X41" s="11" t="s">
-        <v>59</v>
+      <c r="W41" s="11">
+        <v>0</v>
+      </c>
+      <c r="X41" s="11">
+        <v>0</v>
       </c>
       <c r="Y41" s="11">
         <v>0</v>
@@ -4649,164 +4649,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="16" t="s">
         <v>60</v>
       </c>
       <c r="C42" s="17"/>
       <c r="D42" s="17"/>
       <c r="E42" s="17">
-        <v>361661</v>
+        <v>197033</v>
       </c>
       <c r="F42" s="17">
-        <v>226743</v>
+        <v>223090</v>
       </c>
       <c r="G42" s="17">
-        <v>197033</v>
+        <v>407779</v>
       </c>
       <c r="H42" s="17">
-        <v>223090</v>
+        <v>141650</v>
       </c>
       <c r="I42" s="17">
-        <v>407779</v>
+        <v>296569</v>
       </c>
       <c r="J42" s="17">
-        <v>141650</v>
+        <v>241831</v>
       </c>
       <c r="K42" s="17">
-        <v>296569</v>
+        <v>250087</v>
       </c>
       <c r="L42" s="17">
-        <v>241831</v>
+        <v>253544</v>
       </c>
       <c r="M42" s="17">
-        <v>250087</v>
+        <v>188712</v>
       </c>
       <c r="N42" s="17">
-        <v>253544</v>
+        <v>221469</v>
       </c>
       <c r="O42" s="17">
-        <v>188712</v>
+        <v>282831</v>
       </c>
       <c r="P42" s="17">
-        <v>221469</v>
+        <v>287752</v>
       </c>
       <c r="Q42" s="17">
-        <v>282831</v>
+        <v>303808</v>
       </c>
       <c r="R42" s="17">
-        <v>287752</v>
+        <v>283092</v>
       </c>
       <c r="S42" s="17">
-        <v>303808</v>
+        <v>234993</v>
       </c>
       <c r="T42" s="17">
-        <v>283092</v>
+        <v>217409</v>
       </c>
       <c r="U42" s="17">
-        <v>234993</v>
+        <v>202724</v>
       </c>
       <c r="V42" s="17">
-        <v>217409</v>
+        <v>306722</v>
       </c>
       <c r="W42" s="17">
-        <v>202724</v>
+        <v>316312</v>
       </c>
       <c r="X42" s="17">
-        <v>306722</v>
+        <v>379751</v>
       </c>
       <c r="Y42" s="17">
-        <v>316312</v>
+        <v>375814</v>
       </c>
       <c r="Z42" s="17">
-        <v>379751</v>
+        <v>528116</v>
       </c>
       <c r="AA42" s="17">
-        <v>375814</v>
+        <v>511470</v>
       </c>
       <c r="AB42" s="17">
-        <v>528116</v>
+        <v>595845</v>
       </c>
       <c r="AC42" s="17">
-        <v>511470</v>
+        <v>804072</v>
       </c>
       <c r="AD42" s="17">
-        <v>595845</v>
+        <v>727021</v>
       </c>
       <c r="AE42" s="17">
-        <v>804072</v>
+        <v>994137</v>
       </c>
       <c r="AF42" s="17">
-        <v>727021</v>
+        <v>623523</v>
       </c>
       <c r="AG42" s="17">
-        <v>994137</v>
+        <v>973878</v>
       </c>
       <c r="AH42" s="17">
-        <v>623523</v>
+        <v>865497</v>
       </c>
       <c r="AI42" s="17">
-        <v>973878</v>
+        <v>793727</v>
       </c>
       <c r="AJ42" s="17">
-        <v>865497</v>
+        <v>656049</v>
       </c>
       <c r="AK42" s="17">
-        <v>793727</v>
+        <v>830369</v>
       </c>
       <c r="AL42" s="17">
-        <v>656049</v>
+        <v>772467</v>
       </c>
       <c r="AM42" s="17">
-        <v>830369</v>
+        <v>857145</v>
       </c>
       <c r="AN42" s="17">
-        <v>772467</v>
+        <v>789783</v>
       </c>
       <c r="AO42" s="17">
-        <v>857145</v>
+        <v>845894</v>
       </c>
       <c r="AP42" s="17">
-        <v>789783</v>
+        <v>862837</v>
       </c>
       <c r="AQ42" s="17">
-        <v>845894</v>
+        <v>1232793</v>
       </c>
       <c r="AR42" s="17">
-        <v>862837</v>
+        <v>1145275</v>
       </c>
       <c r="AS42" s="17">
-        <v>1232793</v>
+        <v>1284478</v>
       </c>
       <c r="AT42" s="17">
-        <v>1145275</v>
+        <v>1595925</v>
       </c>
       <c r="AU42" s="17">
-        <v>1284478</v>
+        <v>1559621</v>
       </c>
       <c r="AV42" s="17">
-        <v>1595925</v>
+        <v>1529819</v>
       </c>
       <c r="AW42" s="17">
-        <v>1559621</v>
+        <v>1162815</v>
       </c>
       <c r="AX42" s="17">
-        <v>1529819</v>
+        <v>1458285</v>
       </c>
       <c r="AY42" s="17">
-        <v>1162815</v>
+        <v>1226590</v>
       </c>
       <c r="AZ42" s="17">
-        <v>1458285</v>
+        <v>1318457</v>
       </c>
       <c r="BA42" s="17">
-        <v>1226590</v>
+        <v>1022661</v>
       </c>
       <c r="BB42" s="17">
-        <v>1318457</v>
+        <v>1374528</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -4861,7 +4861,7 @@
       <c r="BA43" s="1"/>
       <c r="BB43" s="1"/>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -4916,7 +4916,7 @@
       <c r="BA44" s="1"/>
       <c r="BB44" s="1"/>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -4971,7 +4971,7 @@
       <c r="BA45" s="1"/>
       <c r="BB45" s="1"/>
     </row>
-    <row r="46" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B46" s="7" t="s">
         <v>70</v>
       </c>
@@ -5128,7 +5128,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -5183,7 +5183,7 @@
       <c r="BA47" s="1"/>
       <c r="BB47" s="1"/>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
         <v>71</v>
       </c>
@@ -5240,7 +5240,7 @@
       <c r="BA48" s="9"/>
       <c r="BB48" s="9"/>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
         <v>55</v>
       </c>
@@ -5249,154 +5249,154 @@
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11">
-        <v>102164124</v>
+        <v>104804787</v>
       </c>
       <c r="F49" s="11">
-        <v>108906340</v>
+        <v>96159483</v>
       </c>
       <c r="G49" s="11">
-        <v>104804787</v>
+        <v>97438232</v>
       </c>
       <c r="H49" s="11">
-        <v>96159483</v>
+        <v>96623465</v>
       </c>
       <c r="I49" s="11">
-        <v>97438232</v>
+        <v>101425787</v>
       </c>
       <c r="J49" s="11">
-        <v>96623465</v>
+        <v>101909397</v>
       </c>
       <c r="K49" s="11">
-        <v>101425787</v>
+        <v>103555694</v>
       </c>
       <c r="L49" s="11">
-        <v>101909397</v>
+        <v>105996656</v>
       </c>
       <c r="M49" s="11">
-        <v>103555694</v>
+        <v>112731183</v>
       </c>
       <c r="N49" s="11">
-        <v>105996656</v>
+        <v>107300872</v>
       </c>
       <c r="O49" s="11">
-        <v>112731183</v>
+        <v>99448312</v>
       </c>
       <c r="P49" s="11">
-        <v>107300872</v>
+        <v>95187562</v>
       </c>
       <c r="Q49" s="11">
-        <v>99448312</v>
+        <v>92992960</v>
       </c>
       <c r="R49" s="11">
-        <v>95187562</v>
+        <v>94711275</v>
       </c>
       <c r="S49" s="11">
-        <v>92992960</v>
+        <v>94526549</v>
       </c>
       <c r="T49" s="11">
-        <v>94711275</v>
+        <v>95104549</v>
       </c>
       <c r="U49" s="11">
-        <v>94526549</v>
+        <v>90623156</v>
       </c>
       <c r="V49" s="11">
-        <v>95104549</v>
+        <v>77927337</v>
       </c>
       <c r="W49" s="11">
-        <v>90623156</v>
+        <v>77890175</v>
       </c>
       <c r="X49" s="11">
-        <v>77927337</v>
+        <v>95175689</v>
       </c>
       <c r="Y49" s="11">
-        <v>77890175</v>
+        <v>112857057</v>
       </c>
       <c r="Z49" s="11">
-        <v>95175689</v>
+        <v>124938727</v>
       </c>
       <c r="AA49" s="11">
-        <v>112857057</v>
+        <v>139061990</v>
       </c>
       <c r="AB49" s="11">
-        <v>124938727</v>
+        <v>156062074</v>
       </c>
       <c r="AC49" s="11">
-        <v>139061990</v>
+        <v>181260595</v>
       </c>
       <c r="AD49" s="11">
-        <v>156062074</v>
+        <v>191876748</v>
       </c>
       <c r="AE49" s="11">
-        <v>181260595</v>
+        <v>205188235</v>
       </c>
       <c r="AF49" s="11">
-        <v>191876748</v>
+        <v>217558618</v>
       </c>
       <c r="AG49" s="11">
-        <v>205188235</v>
+        <v>229959386</v>
       </c>
       <c r="AH49" s="11">
-        <v>217558618</v>
+        <v>228363325</v>
       </c>
       <c r="AI49" s="11">
-        <v>229959386</v>
+        <v>233037874</v>
       </c>
       <c r="AJ49" s="11">
-        <v>228363325</v>
+        <v>239871664</v>
       </c>
       <c r="AK49" s="11">
-        <v>233037874</v>
+        <v>246108180</v>
       </c>
       <c r="AL49" s="11">
-        <v>239871664</v>
+        <v>249022244</v>
       </c>
       <c r="AM49" s="11">
-        <v>246108180</v>
+        <v>253593195</v>
       </c>
       <c r="AN49" s="11">
-        <v>249022244</v>
+        <v>252407478</v>
       </c>
       <c r="AO49" s="11">
-        <v>253593195</v>
+        <v>258288244</v>
       </c>
       <c r="AP49" s="11">
-        <v>252407478</v>
+        <v>257179434</v>
       </c>
       <c r="AQ49" s="11">
-        <v>258288244</v>
+        <v>273225399</v>
       </c>
       <c r="AR49" s="11">
-        <v>257179434</v>
+        <v>334013958</v>
       </c>
       <c r="AS49" s="11">
-        <v>273225399</v>
+        <v>359495662</v>
       </c>
       <c r="AT49" s="11">
-        <v>334013958</v>
+        <v>401288660</v>
       </c>
       <c r="AU49" s="11">
-        <v>359495662</v>
+        <v>427762205</v>
       </c>
       <c r="AV49" s="11">
-        <v>401288660</v>
+        <v>431786339</v>
       </c>
       <c r="AW49" s="11">
-        <v>427762205</v>
+        <v>391125126</v>
       </c>
       <c r="AX49" s="11">
-        <v>431786339</v>
+        <v>354813869</v>
       </c>
       <c r="AY49" s="11">
-        <v>391125126</v>
+        <v>351622927</v>
       </c>
       <c r="AZ49" s="11">
-        <v>354813869</v>
+        <v>340510589</v>
       </c>
       <c r="BA49" s="11">
-        <v>351622927</v>
+        <v>330423586</v>
       </c>
       <c r="BB49" s="11">
-        <v>340510589</v>
+        <v>342789435</v>
       </c>
     </row>
   </sheetData>
